--- a/!parsed_items_100/1299/1299_699-800.xlsx
+++ b/!parsed_items_100/1299/1299_699-800.xlsx
@@ -650,17 +650,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Лубрикант на водной основе с экстрактом</t>
+          <t>Клиторальный стимулирующий оральный</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-18387-1299</t>
+          <t>id-22670-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -676,12 +676,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18387/18387_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22670/22670_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22670/22670_2_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Натуральный лубрикант JO NATURALOVE USDA ORIGINAL более чем на 95% состоит из натуральных компонентов, качество которых подтверждено сертификатом USDA. Его легкая текстура обеспечивает длительное, гладкое и шелковистое скольжение, не нарушая естественные ощущения. Скольжение достигается за счет экстракта Агавы, ромашка придает янтарную окраску и служит консервантом. Нежная сладость и вкус, похожий на жженый сахар, делают его приятным для оральных ласк. NATURAL LOVE стимулирует процесс регенерации, защищает от потери влаги, поддерживая естественную любрикацию, питает, увлажняет. Не содержит глицерина, парабенов, подсластителей. Только природные органические компоненты. Возвращает нежность и свежесть интимной зоне. Не липкий, не горчит, можно использовать с любыми презервативами и сексуальными игрушками. JO Organic рекомендуется во всем мире врачами и фармацевтами. Лубрикант на водной основе с экстрактом ромашки JO Naturalove Original with camomile (60 мл).  Лубрикант на водной основе с экстрактом ромашки JO Naturalove Original with camomile (60 мл). Модель: jo-42001. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Цвет: янтарный. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">SWEET BERRY HEAT  стимулирующее косметическое средство на водной основе с ярким фруктовым вкусом клубники. Гель обеспечит ощущение интенсивного согревающего удовольствия. Стимулирующее средство абсолютно безопасно для орального применения.Применение:Идеально подходит для орального секса и прелюдии. Нанесите небольшое количество на клитор и дождитесь нужного эффекта. При необходимости нанесите гель дополнительно. Специальная формула активирует вашу чувствительность с помощью согревания и повысит чувствительность интимной зоны. Клиторальный стимулирующий оральный гель со вкусом клубники Sweet Berry Heart (10 мл).  Клиторальный стимулирующий оральный гель со вкусом клубники Sweet Berry Heart (10 мл). Модель: jo-49038. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -703,17 +703,17 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>10 мл</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -759,13 +759,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>JOLI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,16 +775,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе JO</t>
+          <t>Трусики белые с сердечком и стразами</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-17531-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>id-20616-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -796,44 +804,44 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17531/17531_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_5_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном гелевом лубриканте на водной основе. Длительное скольжение без липкости и без скатываний. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!лнения к романтическому ужину. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой ароматизированные лубриканты на водной основе предназначенные для повышения комфортности во время близости.При производстве продукта используются только качественные ингредиенты.Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование.Каждый аромат создается без сахара, парабенов и пропиленгликоля. Почувствуйте себя десертом с JO Gelato Hazelnut Espresso Flavored Lubrikant с вкуснейшим ароматом орехового эспрессо.ЭСПРЕССО С ЛЕСНЫМ ОРЕХОМ: Кремовый, ореховый вкус фунду</t>
+          <t xml:space="preserve">Joli panties  ваше сексуальное украшение для горячих рандеву!Новая линейка романтичного белья Joli (в пер. с ф</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>92% полиамид, 8% эластан</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>120 мл</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -859,7 +867,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Допускается замена кружева на аналогичное</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -879,32 +887,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>JOLI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Вкусовой лубрикант на водной основе JO</t>
+          <t>Трусики белые с украшением из страз</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-26797-1299</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>id-20623-1299</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>99999</v>
@@ -916,44 +932,44 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26797/26797_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_4_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насыщенные вкусы десертов с мягкой сладостью в густом нежном лубриканте на водной основе. Длительное скольжение без липкости и скатывания. Сбалансированный pH не нарушает женскую микрофлору. Насыщенный вкус без послевкусия или горчинки. Идеально как в спальне, так и в качестве дополнения к романтической чашечке кофе. 0 калорий в самых восхитительных десертах!Коллекция Gelato от JO представляет собой вкусовые лубриканты на водной основе, предназначенные для повышения комфортности во время близости. При производстве продукта используются только качественные ингредиенты. Вся линейка создана с использованием растительного глицерина. Этот продукт обеспечивает длительное скольжение и комфортное использование. Каждый вкус создается без сахара, парабенов и пропиленгликоля. JO Gelato Mint Chocolate Flavored Lubricant очарует необычным сочетанием аромата мяты и шоколада и доставит море незабываемых впечатлений.Мятный шоколад: Свежесть мяты, переплетающаяся с обольстительной сладостью шоколада и сочетающиеся в кремовом мороженном для создания незабываемого десерта.Подходят как для орального, так и вагинального использования.Небольшое количество персонального лубриканта нанесите на интимные участки. Для использования с презервативом нанесите на наружную сторону презерватива. Безопасен для латексных изделий. Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 120 мл.  Вкусовой лубрикант на водной основе JO Gelato Mint Chocolate (Мята-Шоколад) 120 мл. Модель: jo-44022. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Смазки для секс-игрушек. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Joli panties  ваше сексуальное украшение для горячих рандеву!Новая линейка романтичного белья Joli (в пер. с французского красивая) радует глаз элегантными деталями и нежными материалами европейского качества.Невесомое и полупрозрачное кружево с цветочным орнаментом спереди. Изящная и легкая деталь, выполненная из блестящих страз придает сексуальному образу роскошной элегантности.Joli panties  выбери украшение дл</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>92% полиамид, 8% эластан</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>120 мл</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>120 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -979,7 +995,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Допускается замена кружева на аналогичное</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -999,13 +1015,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SYSTEM JO</t>
+          <t>JOLI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1015,16 +1031,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Клиторальный стимулирующий оральный</t>
+          <t>Трусики белые с нежным украшением из</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-22670-1299</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>id-20625-1299</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>99999</v>
@@ -1036,44 +1060,44 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22670/22670_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22670/22670_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_4_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SWEET BERRY HEAT  стимулирующее косметическое средство на водной основе с ярким фруктовым вкусом клубники. Гель обеспечит ощущение интенсивного согревающего удовольствия. Стимулирующее средство абсолютно безопасно для орального применения.Применение:Идеально подходит для орального секса и прелюдии. Нанесите небольшое количество на клитор и дождитесь нужного эффекта. При необходимости нанесите гель дополнительно. Специальная формула активирует вашу чувствительность с помощью согревания и повысит чувствительность интимной зоны. Клиторальный стимулирующий оральный гель со вкусом клубники Sweet Berry Heart (10 мл).  Клиторальный стимулирующий оральный гель со вкусом клубники Sweet Berry Heart (10 мл). Модель: jo-49038. Косметика, препараты. Препараты и возбудители &gt; Чувствительный клитор. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SYSTEM JO. </t>
+          <t xml:space="preserve">Joli panties  ваше сексуальное украшение для горячих рандеву!Новая линейка романтичного белья Joli (в пер. с французского красивая) радует глаз элегантными деталями и нежными материалами европейского качества.Невесомое и полупрозрачное кружево с цветочным орнаментом спереди. Изящная и легкая деталь, выполненная из блестящих страз придает сексуальному образу роскошной элегантности.Joli panties  в</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>92% полиамид, 8% эластан</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>10 мл</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>10 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -1099,7 +1123,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Допускается замена кружева на аналогичное</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1119,40 +1143,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JOLI</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Трусики белые с сердечком и стразами</t>
+          <t>Вибронасадка на палец в виде зайчика</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-20616-1299</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20060-1299</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>99999</v>
@@ -1164,17 +1180,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20616/20616_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_10_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joli panties  ваше сексуальное украшение для горячих рандеву!Новая линейка романтичного белья Joli (в пер. с французского красивая) радует глаз элегантными деталями и нежными материалами европейского качества.Миниатюрные трусики выполнены из кружева с цветочным орнаментом. Нежные и невесомые, с хлопковой ластовицей и мягкими лямками обеспечат комфорт. Нежное признание в виде изящного сердечка у основания ягодиц расскажет о ваших чувствах к партнеру.Joli panties  выбери украшение для обольщения!.Трусики белые с сердечком и стразами Joli Lillian, OneSize.  Трусики белые с сердечком и стразами Joli Lillian, OneSize. Модель: joli-281203slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый, серебряный. Материал: 92% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: JOLI. </t>
+          <t xml:space="preserve">Да будет чумовой секс! Этот маленький кролик доставит удовольствие обоим партнерам. Он сде</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1189,7 +1205,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>92% полиамид, 8% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1206,15 +1222,25 @@
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.4</v>
+      </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3</v>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1227,7 +1253,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>Допускается замена кружева на аналогичное</t>
+          <t>вибростимулятор, зарядное usb-устройство</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1247,40 +1273,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Виброяйца</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JOLI</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Трусики белые с украшением из страз</t>
+          <t>Виброяйцо и вибростимулятор-пульт на</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-20623-1299</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20061-1299</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>99999</v>
@@ -1292,17 +1310,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20623/20623_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_11_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joli panties  ваше сексуальное украшение для горячих рандеву!Новая линейка романтичного белья Joli (в пер. с французского красивая) радует глаз элегантными деталями и нежными материалами европейского качества.Невесомое и полупрозрачное кружево с цветочным орнаментом спереди. Изящная и легкая деталь, выполненная из блестящих страз придает сексуальному образу роскошной элегантности.Joli panties  выбери украшение для обольщения!.Трусики белые с украшением из страз Joli Mia, OneSize.  Трусики белые с украшением из страз Joli Mia, OneSize. Модель: joli-281253slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый, серебряный. Материал: 92% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: JOLI. </t>
+          <t xml:space="preserve">VITA  множество вариантов удовольствия для двоих! Эти игрушки работают как в паре, так и по отдельности. Зайчик  это одновременно вибронасадка на палец и пульт дистанционного управления пулей. Вибрацию игрушек можно синхронизировать, а можно наслаждаться разными режимами. Он сделает прелюдию дико возбуждающей: проведи мягкими силиконовыми ушками по шее, соскам, животу и внутренней стороне бедер. Подвижные ушки идеальны для обхватывающей стимуляции клитора и полового члена.Пульт работает на расстоянии до 8-и метров. Это позволяет вам играть друг с другом на расстоянии.Игрушки изготовлена из бархатистого силикона.VITA будет работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью USB-провода (в комплекте). Вибропуля для вагинальной стимуляции. Зайчик для прелюдии, стимуляции клитора и пениса. 7 режимов вибрации. Бесшумная мощная вибрация. Водонепроницаемость.Виброяйцо и вибростимулятор-пульт на палец  JOS Vita (7 режимов).  Виброяйцо и вибростимулятор-пульт на палец  JOS Vita (7 режимов). Модель: jos-782002. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибро-яйца. Женские стимуляторы &gt; Вибромассажеры. Цвет: яркий розовый. Материал: высококачественный силикон, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1317,7 +1335,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>92% полиамид, 8% эластан</t>
+          <t>высококачественный силикон, пластик</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1334,15 +1352,25 @@
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.4</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AF7" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1355,7 +1383,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>Допускается замена кружева на аналогичное</t>
+          <t>вибростимулятор на палец, виброяйцо, зарядный usb-кабель</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1375,13 +1403,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JOLI</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1391,24 +1419,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Трусики белые с нежным украшением из</t>
+          <t>Виброшарики на дистанционном управлении</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-20625-1299</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20536-1299</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>99999</v>
@@ -1420,17 +1440,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20625/20625_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20536/20536_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20536/20536_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20536/20536_3_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joli panties  ваше сексуальное украшение для горячих рандеву!Новая линейка романтичного белья Joli (в пер. с французского красивая) радует глаз элегантными деталями и нежными материалами европейского качества.Невесомое и полупрозрачное кружево с цветочным орнаментом спереди. Изящная и легкая деталь, выполненная из блестящих страз придает сексуальному образу роскошной элегантности.Joli panties  выбери украшение для обольщения!.Трусики белые с нежным украшением из страз Joli Terri, OneSize.  Трусики белые с нежным украшением из страз Joli Terri, OneSize. Модель: joli-282253slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый, серебряный. Материал: 92% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: JOLI. </t>
+          <t xml:space="preserve">Вагинальные шарики ALBA прокачают интимные мышцы и доведут до фантастического оргазма. Пульсирующие бусины разогреют ткани и тренировка пройдет более эффективно. А вибрация позволит использовать игрушку как массажер для вагинльной и клиторальной стимуляции. Пульт дистанционного управления работает на расстоянии до 8 метров, а это открывает невероятные горизонты для экспериментов с партнером. Шарики изготовлены из высококачественного бархатистого силикона.+ Дистанционное управление 8 метров+ Пульсирующие бусины+ 7 режимов вибрации.Виброшарики на дистанционном управлении с пульсирующими бусинами JOS ALBA ( 7 режимов).  Виброшарики на дистанционном управлении с пульсирующими бусинами JOS ALBA ( 7 режимов). Модель: jos-782011. Секс-игрушки. Шарики &gt; Вагинальные с вибрацией. Шарики &gt; Вагинальные не со смещенным центром тяжести. С вибрацией. Цвет: сиреневый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1445,7 +1465,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>92% полиамид, 8% эластан</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1462,15 +1482,25 @@
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.1</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.6</v>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1483,7 +1513,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>Допускается замена кружева на аналогичное</t>
+          <t>шарики, пульт, зарядный usb-кабель</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1503,28 +1533,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Вибронасадка на палец в виде зайчика</t>
+          <t>Эрекционное кольцо на пенис с</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-20060-1299</t>
+          <t>id-21291-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1540,12 +1570,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20060/20060_10_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_4_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да будет чумовой секс! Этот маленький кролик доставит удовольствие обоим партнерам. Он сделает прелюдию дико возбуждающей: проведи мягкими силиконовыми ушками по шее, соскам, животу и внутренней стороне бедер. Подвижные ушки идеальны для обхватывающей стимуляции клитора и полового члена. 7 режимов вибрации  это 7 крышесносных не похожих друг на друга оргазма.Игрушка изготовлена из бархатистого силикона.DUTTY готов работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью USB-провода (в комплекте). Для прелюдии. Для стимуляции клитора и пениса. Гибкие ушки. Бесшумная мощная вибрация. Водонепроницаемость.Вибронасадка на палец в виде зайчика JOS Dutty (7 режимов).  Вибронасадка на палец в виде зайчика JOS Dutty (7 режимов). Модель: jos-782001. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: пудровый розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Причудливая форма игрушки не смутит даже новичка. Кольцо плотно облегает половой член и продлевает половой акт, а клиторальный стимулятор ускоряет наступление женского оргазма, делая его ярче!Игрушка изготовлена из мягкого эластичного силикона, поэтому она растягивается до нужного диаметра. Съемная вибропуля работает от 2xLR41 батареек (в комплекте).- Причудливая форма- Эластичный силикон- Мягкая вибрация- Съемная вибропуля.Эрекционное кольцо на пенис с классической вибрацией Sweet Devil.  Эрекционное кольцо на пенис с классической вибрацией Sweet Devil. Модель: jos-782015. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: красный с белым. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 2 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1565,7 +1595,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1580,26 +1610,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="Y9" t="n">
-        <v>8.140000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
@@ -1613,7 +1647,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>вибростимулятор, зарядное usb-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1633,28 +1667,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Виброяйца</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Виброяйцо и вибростимулятор-пульт на</t>
+          <t>Эрекционное кольцо на пенис с</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-20061-1299</t>
+          <t>id-21292-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1670,12 +1704,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20061/20061_11_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_5_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">VITA  множество вариантов удовольствия для двоих! Эти игрушки работают как в паре, так и по отдельности. Зайчик  это одновременно вибронасадка на палец и пульт дистанционного управления пулей. Вибрацию игрушек можно синхронизировать, а можно наслаждаться разными режимами. Он сделает прелюдию дико возбуждающей: проведи мягкими силиконовыми ушками по шее, соскам, животу и внутренней стороне бедер. Подвижные ушки идеальны для обхватывающей стимуляции клитора и полового члена.Пульт работает на расстоянии до 8-и метров. Это позволяет вам играть друг с другом на расстоянии.Игрушки изготовлена из бархатистого силикона.VITA будет работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью USB-провода (в комплекте). Вибропуля для вагинальной стимуляции. Зайчик для прелюдии, стимуляции клитора и пениса. 7 режимов вибрации. Бесшумная мощная вибрация. Водонепроницаемость.Виброяйцо и вибростимулятор-пульт на палец  JOS Vita (7 режимов).  Виброяйцо и вибростимулятор-пульт на палец  JOS Vita (7 режимов). Модель: jos-782002. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибро-яйца. Женские стимуляторы &gt; Вибромассажеры. Цвет: яркий розовый. Материал: высококачественный силикон, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Причудливая форма игрушки не смутит даже новичка. Кольцо плотно облегает половой член и продлевает половой акт, а клиторальный стимулятор ускоряет наступление женского оргазма, делая его ярче!Игрушка изготовлена из мягкого эластичного силикона, поэтому она растягивается до нужного диаметра. Съемная вибропуля работает от 2xLR41 батареек (в комплекте). Причудливая форма Эластичный силикон Мягкая вибрация Съемная вибропуля.Эрекционное кольцо на пенис с классической вибрацией Sweet Devil.  Эрекционное кольцо на пенис с классической вибрацией Sweet Devil. Модель: jos-782016. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 41 x 2 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1695,7 +1729,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>высококачественный силикон, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1710,26 +1744,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="Y10" t="n">
-        <v>8.140000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>3.74</v>
+        <v>2.75</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
@@ -1743,7 +1781,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>вибростимулятор на палец, виброяйцо, зарядный usb-кабель</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1763,28 +1801,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Виброшарики на дистанционном управлении</t>
+          <t>Эрекционное кольцо на член и мошонку</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-20536-1299</t>
+          <t>id-21184-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1800,12 +1838,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20536/20536_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20536/20536_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20536/20536_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_5_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вагинальные шарики ALBA прокачают интимные мышцы и доведут до фантастического оргазма. Пульсирующие бусины разогреют ткани и тренировка пройдет более эффективно. А вибрация позволит использовать игрушку как массажер для вагинльной и клиторальной стимуляции. Пульт дистанционного управления работает на расстоянии до 8 метров, а это открывает невероятные горизонты для экспериментов с партнером. Шарики изготовлены из высококачественного бархатистого силикона.+ Дистанционное управление 8 метров+ Пульсирующие бусины+ 7 режимов вибрации.Виброшарики на дистанционном управлении с пульсирующими бусинами JOS ALBA ( 7 режимов).  Виброшарики на дистанционном управлении с пульсирующими бусинами JOS ALBA ( 7 режимов). Модель: jos-782011. Секс-игрушки. Шарики &gt; Вагинальные с вибрацией. Шарики &gt; Вагинальные не со смещенным центром тяжести. С вибрацией. Цвет: сиреневый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Причудливая форма игрушки не смутит даже новичка. Кольцо плотно облегает половой член и продлевает половой акт, а клиторальный стимулятор ускоряет наступление женского оргазма, делая его ярче!Игрушка изготовлена из мягкого эластичного силикона, поэтому она растягивается до нужного диаметра. Съемная вибропуля работает от 2xLR41 батареек (в комплекте). Причудливая форма Эластичный силикон Мягкая вибрация Съемная вибропуля.Эрекционное кольцо на член и мошонку Bad Bunny с вибрацией (1 скорость).  Эрекционное кольцо на член и мошонку Bad Bunny с вибрацией (1 скорость). Модель: jos-782018. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 2 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1825,7 +1863,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1843,23 +1881,23 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>8.91</v>
+        <v>9.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>2.86</v>
+        <v>2.53</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
@@ -1873,7 +1911,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>шарики, пульт, зарядный usb-кабель</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1893,28 +1931,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо на пенис с</t>
+          <t>Виброшарики с подогревом и подсветкой</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-21291-1299</t>
+          <t>id-21524-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1930,12 +1968,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21291/21291_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_6_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Причудливая форма игрушки не смутит даже новичка. Кольцо плотно облегает половой член и продлевает половой акт, а клиторальный стимулятор ускоряет наступление женского оргазма, делая его ярче!Игрушка изготовлена из мягкого эластичного силикона, поэтому она растягивается до нужного диаметра. Съемная вибропуля работает от 2xLR41 батареек (в комплекте).- Причудливая форма- Эластичный силикон- Мягкая вибрация- Съемная вибропуля.Эрекционное кольцо на пенис с классической вибрацией Sweet Devil.  Эрекционное кольцо на пенис с классической вибрацией Sweet Devil. Модель: jos-782015. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: красный с белым. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 2 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">VIKI - лучший тренажер по прокачке интимных мышц. Всего за несколько минут игрушка нагревается до 40 C. Теплая поверхность вызовет прилив крови к вагинальным мышцам, что повысит эффективность тренировки. Эту игрушку можно использовать как массажер для вагинальной и клиторальной стимуляции.Как включить?Удерживайте кнопку включения 3 секунды - игрушка начнет вибрировать.Удерживайте кнопку ещё 3 секунды - включится подогрев.Для смены режимов вибрации быстро нажимайте на кнопку. Виброшарики с подогревом и подсветкой VIKI (10 режимов).  Виброшарики с подогревом и подсветкой VIKI (10 режимов). Модель: jos-782019. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибро-яйца. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1970,30 +2008,30 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8.029999999999999</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>9.130000000000001</v>
+        <v>24.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.300000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.300000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AF12" t="n">
-        <v>2.75</v>
+        <v>3.63</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
@@ -2007,7 +2045,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>виброшарики, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2033,7 +2071,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2043,12 +2081,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо на пенис с</t>
+          <t>Эрекционное кольцо с классической</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-21292-1299</t>
+          <t>id-21393-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -2064,12 +2102,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21292/21292_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_6_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Причудливая форма игрушки не смутит даже новичка. Кольцо плотно облегает половой член и продлевает половой акт, а клиторальный стимулятор ускоряет наступление женского оргазма, делая его ярче!Игрушка изготовлена из мягкого эластичного силикона, поэтому она растягивается до нужного диаметра. Съемная вибропуля работает от 2xLR41 батареек (в комплекте). Причудливая форма Эластичный силикон Мягкая вибрация Съемная вибропуля.Эрекционное кольцо на пенис с классической вибрацией Sweet Devil.  Эрекционное кольцо на пенис с классической вибрацией Sweet Devil. Модель: jos-782016. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 41 x 2 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Кольцо изготовлено из жесткого, но эластичного силикона. Такое сочетание совмещает функциональность и комфорт для мужчины. Кольцо отлично удерживает эрекцию и продлевает половой акт. Кольцо имеет небольшой хвостик с силиконовым шариком на конце. При фрикциях он похлопывает по мошонке мужчины и промежности женщины, доставляя богатые переживания обоим партнерам. Съемная вибропуля работает от 3xLR44 батареек (в комплекте).Голова для клиторальной стимуляцииХвостик для стимуляции мошонки и промежностиЭластичный силиконМощная вибрацияСъемная вибропуля.Эрекционное кольцо с классической вибрацией MICKEY.  Эрекционное кольцо с классической вибрацией MICKEY. Модель: jos-782020. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: темно-синий, серебряный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2104,30 +2142,26 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8.029999999999999</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>9.130000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
@@ -2141,7 +2175,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>кольцо, вибро-яйцо</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2167,7 +2201,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2177,12 +2211,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо на член и мошонку</t>
+          <t>Эрекционное кольцо с классической</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-21184-1299</t>
+          <t>id-21392-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2198,12 +2232,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21184/21184_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_4_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Причудливая форма игрушки не смутит даже новичка. Кольцо плотно облегает половой член и продлевает половой акт, а клиторальный стимулятор ускоряет наступление женского оргазма, делая его ярче!Игрушка изготовлена из мягкого эластичного силикона, поэтому она растягивается до нужного диаметра. Съемная вибропуля работает от 2xLR41 батареек (в комплекте). Причудливая форма Эластичный силикон Мягкая вибрация Съемная вибропуля.Эрекционное кольцо на член и мошонку Bad Bunny с вибрацией (1 скорость).  Эрекционное кольцо на член и мошонку Bad Bunny с вибрацией (1 скорость). Модель: jos-782018. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью. LR 41 x 2 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Кольцо изготовлено из жесткого, но эластичного силикона. Такое сочетание совмещает функциональность и комфорт для мужчины. Кольцо отлично удерживает эрекцию и продлевает половой акт. Кольцо имеет небольшой хвостик с силиконовым шариком на конце. При фрикциях он похлопывает по мошонке мужчины и промежности женщины, доставляя богатые переживания обоим партнерам. Съемная вибропуля работает от 3xLR44 батареек (в комплекте).Голова для клиторальной стимуляцииХвостик для стимуляции мошонки и промежностиЭластичный силиконМощная вибрацияСъемная вибропуля.Эрекционное кольцо с классической вибрацией NICK.  Эрекционное кольцо с классической вибрацией NICK. Модель: jos-782021. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: красный с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2223,7 +2257,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2241,23 +2275,23 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>9.9</v>
+        <v>14.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>2.53</v>
+        <v>3.85</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
@@ -2271,7 +2305,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>кольцо, вибро-яйцо</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2297,7 +2331,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2307,16 +2341,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Виброшарики с подогревом и подсветкой</t>
+          <t>Клиторальный вкладыш-язычок в трусики</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-21524-1299</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>id-22290-1299</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>99999</v>
@@ -2328,12 +2370,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21524/21524_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_11_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIKI - лучший тренажер по прокачке интимных мышц. Всего за несколько минут игрушка нагревается до 40 C. Теплая поверхность вызовет прилив крови к вагинальным мышцам, что повысит эффективность тренировки. Эту игрушку можно использовать как массажер для вагинальной и клиторальной стимуляции.Как включить?Удерживайте кнопку включения 3 секунды - игрушка начнет вибрировать.Удерживайте кнопку ещё 3 секунды - включится подогрев.Для смены режимов вибрации быстро нажимайте на кнопку. Виброшарики с подогревом и подсветкой VIKI (10 режимов).  Виброшарики с подогревом и подсветкой VIKI (10 режимов). Модель: jos-782019. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибро-яйца. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Заигрывайте и флиртуйте, заводите друг друга где угодно - дома, на рок-концерте, в клубе, в ресторане!Этот изящный бархатистый вибратор можно носить прямо в трусиках, а пульт будет управлять игрушкой на расстоянии до 5 метров. Отдайте пульт партнеру и он будет доставлять вам наслаждение на расстоянии, подогревая страсть между вами.Игрушка изготовлена из высококачественного силикона. Емкий аккумулятор заряжается от USB.- 10 режимов вибрации- Дистанционное управление- Бархатистый силикон- Мощная вибрация- Бесшумный.Клиторальный вкладыш-язычок в трусики JOS Flirti (10 режимов).  Клиторальный вкладыш-язычок в трусики JOS Flirti (10 режимов). Модель: jos-782022. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2353,7 +2395,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2370,29 +2412,15 @@
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2405,7 +2433,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>виброшарики, зарядное USB-устройство</t>
+          <t>вибратор, пульт дистанционного управления, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2425,28 +2453,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо с классической</t>
+          <t>Вагинальные шарики JOS BERRY в виде</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-21393-1299</t>
+          <t>id-24521-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2462,12 +2490,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21393/21393_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_4_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кольцо изготовлено из жесткого, но эластичного силикона. Такое сочетание совмещает функциональность и комфорт для мужчины. Кольцо отлично удерживает эрекцию и продлевает половой акт. Кольцо имеет небольшой хвостик с силиконовым шариком на конце. При фрикциях он похлопывает по мошонке мужчины и промежности женщины, доставляя богатые переживания обоим партнерам. Съемная вибропуля работает от 3xLR44 батареек (в комплекте).Голова для клиторальной стимуляцииХвостик для стимуляции мошонки и промежностиЭластичный силиконМощная вибрацияСъемная вибропуля.Эрекционное кольцо с классической вибрацией MICKEY.  Эрекционное кольцо с классической вибрацией MICKEY. Модель: jos-782020. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: темно-синий, серебряный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">BERRY Вагинальный шарик с естественной вибрациейЭта ягодка подарит мощные оргазмы, здоровые интимные мышцы и большее удовольствие партнеру. Тренировки каждый день по 15 минут уже через месяц повысят эластичность тканей и укрепят мышцы тазового дна. Внутри ягодки находится металлический шарик, который создает естественные вибрации в ответ на движения тела. Эта особенность игрушки сделает тренировки не только полезными, но и приятными.Оригинальная форма скроет истинное предназначение игрушки.    Бархатистый силикон    Оригинальный дизайн    Эластичный шнурок для легкого извлечения.Вагинальные шарики JOS BERRY в виде ягодки.  Вагинальные шарики JOS BERRY в виде ягодки. Модель: jos-782023. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: нежно-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2487,7 +2515,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2505,23 +2533,23 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>14.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>3.85</v>
+        <v>3.41</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
@@ -2535,7 +2563,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>кольцо, вибро-яйцо</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2555,28 +2583,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Вагинальные шарики</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Эрекционное кольцо с классической</t>
+          <t>Вагинальный шарик в виде вишенки CHERRY</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-21392-1299</t>
+          <t>id-22732-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2592,12 +2620,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21392/21392_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_4_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кольцо изготовлено из жесткого, но эластичного силикона. Такое сочетание совмещает функциональность и комфорт для мужчины. Кольцо отлично удерживает эрекцию и продлевает половой акт. Кольцо имеет небольшой хвостик с силиконовым шариком на конце. При фрикциях он похлопывает по мошонке мужчины и промежности женщины, доставляя богатые переживания обоим партнерам. Съемная вибропуля работает от 3xLR44 батареек (в комплекте).Голова для клиторальной стимуляцииХвостик для стимуляции мошонки и промежностиЭластичный силиконМощная вибрацияСъемная вибропуля.Эрекционное кольцо с классической вибрацией NICK.  Эрекционное кольцо с классической вибрацией NICK. Модель: jos-782021. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: красный с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Эта ягодка подарит мощные оргазмы, здоровые интимные мышцы и большее удовольствие партнеру. Тренировки каждый день по 15 минут уже через месяц повысят эластичность тканей и укрепят мышцы тазового дна.Внутри ягодки находится металлический шарик, который создаёт естественные вибрации в ответ на движения тела. Эта особенность игрушки сделает тренировки не только полезными, но и приятными.Оригинальная форма скроет истинное предназначение игрушки.- Бархатистый силикон- Оригинальный дизайн- Эластичный шнурок для легкого извлечения. Вагинальный шарик в виде вишенки CHERRY.  Вагинальный шарик в виде вишенки CHERRY. Модель: jos-782025. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: вишневый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2617,7 +2645,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2635,23 +2663,23 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>14.3</v>
+        <v>15.95</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>3.85</v>
+        <v>3.63</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
@@ -2665,7 +2693,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>кольцо, вибро-яйцо</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2691,7 +2719,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2701,24 +2729,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Клиторальный вкладыш-язычок в трусики</t>
+          <t>Стимулятор точки G точки на дистанц. и</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-22290-1299</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-22289-1299</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>99999</v>
@@ -2730,12 +2750,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22290/22290_11_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_4_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заигрывайте и флиртуйте, заводите друг друга где угодно - дома, на рок-концерте, в клубе, в ресторане!Этот изящный бархатистый вибратор можно носить прямо в трусиках, а пульт будет управлять игрушкой на расстоянии до 5 метров. Отдайте пульт партнеру и он будет доставлять вам наслаждение на расстоянии, подогревая страсть между вами.Игрушка изготовлена из высококачественного силикона. Емкий аккумулятор заряжается от USB.- 10 режимов вибрации- Дистанционное управление- Бархатистый силикон- Мощная вибрация- Бесшумный.Клиторальный вкладыш-язычок в трусики JOS Flirti (10 режимов).  Клиторальный вкладыш-язычок в трусики JOS Flirti (10 режимов). Модель: jos-782022. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Поговори с ним - не стесняйся! TILLY не промолчит в ответ, а подарит незабываемые ощущения. Нагрев до комфортной температуры, 10 режимов вибрации и поступательные движения головки помогут достичь самых ярких оргазмов. Пульт ДУ работает на расстоянии до 5 метров - немало сценариев может быть разыграно с этим малым. TILLY еще раз доказывает, что размер не имеет значения! Изготовлен из высококачественного бархатистого силикона.- 10 режимов вибрации- Функция голосового управления- Подвижная головка- Нагревается до 40 C.Стимулятор точки G точки на дистанц. и голосовом управлении с вибрацией и движением JOS Tilly (10 режимов).  Стимулятор точки G точки на дистанц. и голосовом управлении с вибрацией и движением JOS Tilly (10 режимов). Модель: jos-782027. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. CR 2032 (3V) x 1 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2755,7 +2775,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2772,15 +2792,29 @@
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11.5</v>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3.1</v>
+      </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2793,7 +2827,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>вибратор, пульт дистанционного управления, зарядное USB-устройство</t>
+          <t>вибратор, дистанционный пульт управления, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2813,13 +2847,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2829,16 +2863,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Вагинальные шарики JOS BERRY в виде</t>
+          <t>Перезаряжаемый клиторальный вибратор в</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-24521-1299</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>id-24635-1299</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>4XL</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>58-60</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>99999</v>
@@ -2850,12 +2892,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24521/24521_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_4_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERRY Вагинальный шарик с естественной вибрациейЭта ягодка подарит мощные оргазмы, здоровые интимные мышцы и большее удовольствие партнеру. Тренировки каждый день по 15 минут уже через месяц повысят эластичность тканей и укрепят мышцы тазового дна. Внутри ягодки находится металлический шарик, который создает естественные вибрации в ответ на движения тела. Эта особенность игрушки сделает тренировки не только полезными, но и приятными.Оригинальная форма скроет истинное предназначение игрушки.    Бархатистый силикон    Оригинальный дизайн    Эластичный шнурок для легкого извлечения.Вагинальные шарики JOS BERRY в виде ягодки.  Вагинальные шарики JOS BERRY в виде ягодки. Модель: jos-782023. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: нежно-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">RUMBA - клиторальный вибратор в трусики. Тысячи сценариев флирта с наслаждением вы сможете разыграть с RUMBA. Просто поместите игрушку в трусики и отдайте пульт своему партнеру. Дома, в гостях, в ресторане или в клубе - вы сможете получить тайное наслаждение от взаимодействия друг с другом. Горошинка на кончике будет интенсивно стимулировать клитор. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.    12 режимов вибрации    Бархатистый силикон    Пульт дистанционного управления.Перезаряжаемый клиторальный вибратор в трусики JOS RUMBA (12 режимов).  Перезаряжаемый клиторальный вибратор в трусики JOS RUMBA (12 режимов). Модель: jos-782028. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2875,7 +2917,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2892,25 +2934,15 @@
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2923,7 +2955,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, дистанционный пульт управления, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2943,13 +2975,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Вагинальные шарики</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2959,12 +2991,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Вагинальный шарик в виде вишенки CHERRY</t>
+          <t>Сенсорный перезаряжаемый вибромассажер</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-22732-1299</t>
+          <t>id-24636-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2980,12 +3012,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22732/22732_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_3_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта ягодка подарит мощные оргазмы, здоровые интимные мышцы и большее удовольствие партнеру. Тренировки каждый день по 15 минут уже через месяц повысят эластичность тканей и укрепят мышцы тазового дна.Внутри ягодки находится металлический шарик, который создаёт естественные вибрации в ответ на движения тела. Эта особенность игрушки сделает тренировки не только полезными, но и приятными.Оригинальная форма скроет истинное предназначение игрушки.- Бархатистый силикон- Оригинальный дизайн- Эластичный шнурок для легкого извлечения. Вагинальный шарик в виде вишенки CHERRY.  Вагинальный шарик в виде вишенки CHERRY. Модель: jos-782025. Секс-игрушки. Шарики &gt; Вагинальные со смещенным центром тяжести. Цвет: вишневый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">TWIGGY -  это многофункциональный стимулятор эрогенных зон для вас и вашего партнера. Благодаря сенсорному управлению, вы сможете с лёгкостью выбирать необходимый режим вибрации. Для этого просто проведите по светодиодной веточке. Чтобы усилить мощность проведите пальцем вправо по ветке, а для того, чтобы уменьшить - влево.    10 режимов вибрации    5 скоростей вибрацииУдивите себя и партнера множеством комбинаций удовольствия: стимулируйте соски, шею, клитор, мошонку и член. С помощью одной кнопки меняйте режим вибрации. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB. Сенсорный перезаряжаемый вибромассажер JOS Twiggy (10 режимов, 5 скоростей).  Сенсорный перезаряжаемый вибромассажер JOS Twiggy (10 режимов, 5 скоростей). Модель: jos-782029. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3005,7 +3037,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3020,27 +3052,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4.18</v>
+      </c>
       <c r="Y20" t="n">
-        <v>15.95</v>
+        <v>13.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3053,7 +3085,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибромассажер, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -3079,22 +3111,22 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Стимулятор точки G точки на дистанц. и</t>
+          <t>Вибро-насадка на палец для прелюдий с</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-22289-1299</t>
+          <t>id-24634-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -3110,12 +3142,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22289/22289_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_4_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Поговори с ним - не стесняйся! TILLY не промолчит в ответ, а подарит незабываемые ощущения. Нагрев до комфортной температуры, 10 режимов вибрации и поступательные движения головки помогут достичь самых ярких оргазмов. Пульт ДУ работает на расстоянии до 5 метров - немало сценариев может быть разыграно с этим малым. TILLY еще раз доказывает, что размер не имеет значения! Изготовлен из высококачественного бархатистого силикона.- 10 режимов вибрации- Функция голосового управления- Подвижная головка- Нагревается до 40 C.Стимулятор точки G точки на дистанц. и голосовом управлении с вибрацией и движением JOS Tilly (10 режимов).  Стимулятор точки G точки на дистанц. и голосовом управлении с вибрацией и движением JOS Tilly (10 режимов). Модель: jos-782027. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. CR 2032 (3V) x 1 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Эта игрушка доставит удовольствие обоим партнерам. Двойной язычок позволит стимулировать эрогенные зоны с двух сторон. Мощный режим вибрации будет деликатно доставлять удовольствие клитору, половым губам, стволу полового члена и мошонке. Изготовлена из высококачественного бархатистого силикона. Съёмная вибро-пуля работает от батареек 3LR44 (идут в комплекте).    Мощная бесшумная вибрация    Двойной язычок для стимуляции    Съёмная вибропуля    1 режим вибрацииПодарите себе и своему партнеру множество различных оргазмов вместе с маленькой, но мощной насадкой на палец. Вибро-насадка на палец для прелюдий с раздвоенным язычком JOS Tessy.  Вибро-насадка на палец для прелюдий с раздвоенным язычком JOS Tessy. Модель: jos-782030. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: баклажановый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3135,7 +3167,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3150,31 +3182,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.42</v>
+      </c>
       <c r="Y21" t="n">
-        <v>12.65</v>
+        <v>10.45</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3187,7 +3215,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>вибратор, дистанционный пульт управления, зарядное USB-устройство</t>
+          <t>насадка на палец, вибро-пуля</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3213,7 +3241,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3223,24 +3251,16 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Перезаряжаемый клиторальный вибратор в</t>
+          <t>Вакуумный клиторальный стимулятор -</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-24635-1299</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>4XL</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>58-60</t>
-        </is>
-      </c>
+          <t>id-24794-1299</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>99999</v>
@@ -3252,12 +3272,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24635/24635_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_6_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUMBA - клиторальный вибратор в трусики. Тысячи сценариев флирта с наслаждением вы сможете разыграть с RUMBA. Просто поместите игрушку в трусики и отдайте пульт своему партнеру. Дома, в гостях, в ресторане или в клубе - вы сможете получить тайное наслаждение от взаимодействия друг с другом. Горошинка на кончике будет интенсивно стимулировать клитор. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.    12 режимов вибрации    Бархатистый силикон    Пульт дистанционного управления.Перезаряжаемый клиторальный вибратор в трусики JOS RUMBA (12 режимов).  Перезаряжаемый клиторальный вибратор в трусики JOS RUMBA (12 режимов). Модель: jos-782028. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Клиторальный стимулятор-насадка SWIZZY - настоящая находка как для пар, так и для игры в формате соло. Невероятно комфортный в использовании, благодаря компактному размеру и кармашку-насадке. Вы можете держать его в руке или надеть как насадку на пальцы и наслаждаться яркими красками оргазма. Используйте его в паре для умножения ваших с партнером ощущений. Вакуум-волновая стимуляция доведет до кульминации за считанные минуты и подарит яркие ощущения от оргазма. Бесшумный мотор не доставит неудобств во время использования. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.    10 режимов вакуум-волновой стимуляции    Бархатистый силикон    Время для полной зарядки: 2 часа    Время работы: 90 минут. Вакуумный клиторальный стимулятор - насадка JOS Swizzy (10 режимов).  Вакуумный клиторальный стимулятор - насадка JOS Swizzy (10 режимов). Модель: jos-782031. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3277,7 +3297,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3292,11 +3312,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11.8</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
@@ -3315,7 +3345,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>вибратор, дистанционный пульт управления, магнитное зарядное USB-устройство</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3341,7 +3371,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3351,16 +3381,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Сенсорный перезаряжаемый вибромассажер</t>
+          <t>Перезаряжаемый клиторальный вибратор на</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-24636-1299</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t>id-27240-1299</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>99999</v>
@@ -3372,17 +3410,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24636/24636_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_8_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">TWIGGY -  это многофункциональный стимулятор эрогенных зон для вас и вашего партнера. Благодаря сенсорному управлению, вы сможете с лёгкостью выбирать необходимый режим вибрации. Для этого просто проведите по светодиодной веточке. Чтобы усилить мощность проведите пальцем вправо по ветке, а для того, чтобы уменьшить - влево.    10 режимов вибрации    5 скоростей вибрацииУдивите себя и партнера множеством комбинаций удовольствия: стимулируйте соски, шею, клитор, мошонку и член. С помощью одной кнопки меняйте режим вибрации. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB. Сенсорный перезаряжаемый вибромассажер JOS Twiggy (10 режимов, 5 скоростей).  Сенсорный перезаряжаемый вибромассажер JOS Twiggy (10 режимов, 5 скоростей). Модель: jos-782029. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Этот малыш способен привнести новые эмоции в вашу сексуальную жизнь. Клиторальный вибратор можно использовать как в паре, так и соло. Просто поместите его в трусики и управляйте им с помощью пульта. Плотная горошинка на кончике будет стимулировать клитор, доводя до заветной кульминации. Вагинальный стимулятор усилит кровообращение, что несомненно раззадорит для последующих оргазмов. 10 режимов обеспечат незабываемые ощущения. Кнопками +.- на пульте управления вы сможете менять скорость стандартной вибрации (3 скорости). Изготовлен из высококачественного бархатистого силикона. Заряжается от USB. Для включения необходимо долгое нажатие на кнопку включения (до 10 секунд удерживайте кнопку). Перезаряжаемый клиторальный вибратор на ДУ в трусики PANSY (10 режимов).  Перезаряжаемый клиторальный вибратор на ДУ в трусики PANSY (10 режимов). Модель: jos-782032. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3412,21 +3450,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>12</v>
-      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -3445,7 +3473,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>вибромассажер, зарядное USB-устройство</t>
+          <t>стимулятор в трусики, пульт ДУ, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3471,22 +3499,22 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Вибро-насадка на палец для прелюдий с</t>
+          <t>Многофункциональный стимулятор клитора</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-24634-1299</t>
+          <t>id-25693-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3502,12 +3530,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24634/24634_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_6_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта игрушка доставит удовольствие обоим партнерам. Двойной язычок позволит стимулировать эрогенные зоны с двух сторон. Мощный режим вибрации будет деликатно доставлять удовольствие клитору, половым губам, стволу полового члена и мошонке. Изготовлена из высококачественного бархатистого силикона. Съёмная вибро-пуля работает от батареек 3LR44 (идут в комплекте).    Мощная бесшумная вибрация    Двойной язычок для стимуляции    Съёмная вибропуля    1 режим вибрацииПодарите себе и своему партнеру множество различных оргазмов вместе с маленькой, но мощной насадкой на палец. Вибро-насадка на палец для прелюдий с раздвоенным язычком JOS Tessy.  Вибро-насадка на палец для прелюдий с раздвоенным язычком JOS Tessy. Модель: jos-782030. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: баклажановый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. LR 44 x 3 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">В этом маленьком девайсе кроется множество ярких и глубоких оргазмов для вас! Blossy создан как для игр соло, так и для развлечения с партнером. Вакуум-волновая стимуляция доведет до кульминации за считанные минуты. 7 различных режимов вакуумной стимуляции, 10 режимов вибрации и бесшумная работа сделают его использование комфортным. Лепестки предназначены для стимуляции эрогенных зон (клитора, сосков). Изготовлен стимулятор из высококачественного бархатистого силикона. Заряжается от USB. Время до полной зарядки - 1 час. Время работы - 50 минут. Многофункциональный стимулятор клитора JOS Blossy (10 + 7 режимов).  Многофункциональный стимулятор клитора JOS Blossy (10 + 7 режимов). Модель: jos-782033. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3527,7 +3555,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3543,19 +3571,19 @@
         </is>
       </c>
       <c r="W24" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="X24" t="n">
-        <v>2.42</v>
+        <v>0.44</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.45</v>
+        <v>15.73</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>14.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>14.3</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
@@ -3575,7 +3603,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>насадка на палец, вибро-пуля</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3601,7 +3629,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3611,12 +3639,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Вакуумный клиторальный стимулятор -</t>
+          <t>Нагреваемый вакуумный стимулятор</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-24794-1299</t>
+          <t>id-27266-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3632,17 +3660,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24794/24794_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_12_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клиторальный стимулятор-насадка SWIZZY - настоящая находка как для пар, так и для игры в формате соло. Невероятно комфортный в использовании, благодаря компактному размеру и кармашку-насадке. Вы можете держать его в руке или надеть как насадку на пальцы и наслаждаться яркими красками оргазма. Используйте его в паре для умножения ваших с партнером ощущений. Вакуум-волновая стимуляция доведет до кульминации за считанные минуты и подарит яркие ощущения от оргазма. Бесшумный мотор не доставит неудобств во время использования. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.    10 режимов вакуум-волновой стимуляции    Бархатистый силикон    Время для полной зарядки: 2 часа    Время работы: 90 минут. Вакуумный клиторальный стимулятор - насадка JOS Swizzy (10 режимов).  Вакуумный клиторальный стимулятор - насадка JOS Swizzy (10 режимов). Модель: jos-782031. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Откройте новые варианты удовольствия с Shani - стимулятором точки G с вакуум-волновым воздействием. Реалистичное исполнение головки будет стимулировать точку G, а вакуум-волновая стимуляция не оставит вас без оргазма. 10 различных вариантов работы подарит множество сценариев для использования.Дистанционный пульт управления позволит наслаждаться Shani комфортно как в одиночество, так и в игре с партнером - просто отдайте пульт избраннику и доверьтесь ощущениям. Функция нагрева позволит ощутить комфортную температуру, схожую с теплом человеческого тела. Стимуляция может быть как одновременная - клиторальная и вагинальная, так и по-отдельности. Изготовлен из высококачественного бархатистого силикона.10 режимов вибрации10 режимов вакуум-волновой стимуляцииФункция нагреваВремя до полной зарядки - 2 часаВремя работы - 1 часЗаряжается от USB.Нагреваемый вакуумный стимулятор клитора и точки G на дист. управлении SHANI (10 режимов).  Нагреваемый вакуумный стимулятор клитора и точки G на дист. управлении SHANI (10 режимов). Модель: jos-782036. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фуксия. Материал: высококаче</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3672,27 +3700,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W25" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="X25" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>12.98</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>2.75</v>
+      </c>
       <c r="AH25" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3705,7 +3733,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>стимулятор, пульт ДУ, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3731,7 +3759,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3741,24 +3769,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Перезаряжаемый клиторальный вибратор на</t>
+          <t>Вибратор с двигающимися шариками и</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-27240-1299</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-24344-1299</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>99999</v>
@@ -3770,17 +3790,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27240/27240_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_8_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот малыш способен привнести новые эмоции в вашу сексуальную жизнь. Клиторальный вибратор можно использовать как в паре, так и соло. Просто поместите его в трусики и управляйте им с помощью пульта. Плотная горошинка на кончике будет стимулировать клитор, доводя до заветной кульминации. Вагинальный стимулятор усилит кровообращение, что несомненно раззадорит для последующих оргазмов. 10 режимов обеспечат незабываемые ощущения. Кнопками +.- на пульте управления вы сможете менять скорость стандартной вибрации (3 скорости). Изготовлен из высококачественного бархатистого силикона. Заряжается от USB. Для включения необходимо долгое нажатие на кнопку включения (до 10 секунд удерживайте кнопку). Перезаряжаемый клиторальный вибратор на ДУ в трусики PANSY (10 режимов).  Перезаряжаемый клиторальный вибратор на ДУ в трусики PANSY (10 режимов). Модель: jos-782032. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. CR 2032 (3V) x 1 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">BALLE  настоящий мужчина! 16 бусинок нежно стимулируют стенки влагалища. 8 из них двигаются вверх и вниз по стволу игрушки, другие 8 шариков пульсируют. Такая стимуляция имитирует поступательные движения члена. Подобные ощущения женщина испытывает во время секса, но с BALLY эти ощущения в 2 раза ярче, потому что он не забывает о самой чувственной зоне  клиторе. Клиторальный массажер раздваивается. Это обеспечивает обхватывающий всесторонний массаж клитора. Игрушка изготовлена из бархатистого, как кожа, силикона. BALLE будет работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью магнитного USB-провода (в комплекте).  16 движущихся металлических шариков.  3 скорости движения шариков.  7 режимов клиторального стимулятора.  Магнитная зарядка. Вибратор с двигающимися шариками и клиторальным стимулятором Balle (7 режимов).  Вибратор с двигающимися шариками и клиторальным стимулятором Balle (7 режимов). Модель: jos-783002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3812,15 +3832,29 @@
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH26" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3833,7 +3867,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>стимулятор в трусики, пульт ДУ, зарядное USB-устройство</t>
+          <t>вибратор, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3859,7 +3893,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3869,12 +3903,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Многофункциональный стимулятор клитора</t>
+          <t>Вибратор с подогревом и клиторальным</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-25693-1299</t>
+          <t>id-24345-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3890,12 +3924,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25693/25693_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_1_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">В этом маленьком девайсе кроется множество ярких и глубоких оргазмов для вас! Blossy создан как для игр соло, так и для развлечения с партнером. Вакуум-волновая стимуляция доведет до кульминации за считанные минуты. 7 различных режимов вакуумной стимуляции, 10 режимов вибрации и бесшумная работа сделают его использование комфортным. Лепестки предназначены для стимуляции эрогенных зон (клитора, сосков). Изготовлен стимулятор из высококачественного бархатистого силикона. Заряжается от USB. Время до полной зарядки - 1 час. Время работы - 50 минут. Многофункциональный стимулятор клитора JOS Blossy (10 + 7 режимов).  Многофункциональный стимулятор клитора JOS Blossy (10 + 7 режимов). Модель: jos-782033. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">ELLY  горячий секс во всех смыслах! Всего за 1 минуту игрушка нагревается до 40 C. Теплая поверхность вызовет прилив крови к эрогенным зонам. Это повысит чувствительность и ощущения станут более яркими. Загнутая головка вибратора легко найдет заветную точку G и доведет до кульминации. Вибратор имеет два мощных мотора с 7 режимами вибрации. Клиторальный массажер раздваивается. Это обеспечивает обхватывающий всесторонний массаж клитора. Игрушки изготовлена из бархатистого силикона. ELLY будет работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью магнитного USB-провода (в комплекте).  Нагревается до 40 C.  2 мотора.  Головка для точки G.  7 режимов вибрации. Вибратор с подогревом и клиторальным стимулятором JOS ELLY (2 мотора, 7 режимов).  Вибратор с подогревом и клиторальным стимулятором JOS ELLY (2 мотора, 7 режимов). Модель: jos-783003. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3915,7 +3949,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3930,27 +3964,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W27" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.44</v>
-      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>15.73</v>
+        <v>23.43</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.3</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.3</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>2.9</v>
+      </c>
       <c r="AH27" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3963,7 +4001,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>вибратор, магнитная USB-зарядка</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3989,7 +4027,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3999,12 +4037,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Нагреваемый вакуумный стимулятор</t>
+          <t>Бесшумный вибратор для двойной</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-27266-1299</t>
+          <t>id-20066-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -4020,17 +4058,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27266/27266_12_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_5_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройте новые варианты удовольствия с Shani - стимулятором точки G с вакуум-волновым воздействием. Реалистичное исполнение головки будет стимулировать точку G, а вакуум-волновая стимуляция не оставит вас без оргазма. 10 различных вариантов работы подарит множество сценариев для использования.Дистанционный пульт управления позволит наслаждаться Shani комфортно как в одиночество, так и в игре с партнером - просто отдайте пульт избраннику и доверьтесь ощущениям. Функция нагрева позволит ощутить комфортную температуру, схожую с теплом человеческого тела. Стимуляция может быть как одновременная - клиторальная и вагинальная, так и по-отдельности. Изготовлен из высококачественного бархатистого силикона.10 режимов вибрации10 режимов вакуум-волновой стимуляцииФункция нагреваВремя до полной зарядки - 2 часаВремя работы - 1 часЗаряжается от USB.Нагреваемый вакуумный стимулятор клитора и точки G на дист. управлении SHANI (10 режимов).  Нагреваемый вакуумный стимулятор клитора и точки G на дист. управлении SHANI (10 режимов). Модель: jos-782036. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фуксия. Материал: высококачественный силикон с бархатистой поверхностью. CR 2032 (3V) x 1 шт (в комплекте)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">НОВИНКА НА РЫНКЕ СЕКС-ИГРУШЕК! WOW-режим создан для мегаоргазмов! Как только вы почувствуете, что разрядка близко, нажмите на кнопку WOW (с изображением звезды)  и мгновенная усиленная вибрация умножит силу оргазма! Больше не надо искать самую мощную программу с помощью одной кнопки вы легко можете включить и выключить супер режим в пик наслаждения. 10 режимов вибрации - это 10 крышесносных не похожих друг на друга оргазма. Игрушка изготовлена из бархатистого силикона. Работает от 2AAA батареек (не в комплекте). Мгновенно включающийся WOW-режим. Бесшумная вибрация Удобная ручка.Бесшумный вибратор для двойной стимуляции JOLY (10 режимов).  Бесшумный вибратор для двойной стимуляции JOLY (10 режимов). Модель: jos-783005. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4045,7 +4083,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -4063,23 +4101,27 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>21.56</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11.22</v>
+      </c>
       <c r="AF28" t="n">
-        <v>3.025</v>
+        <v>3.63</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
@@ -4093,7 +4135,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>стимулятор, пульт ДУ, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4113,13 +4155,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4129,12 +4171,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Вибратор с двигающимися шариками и</t>
+          <t>Стимулятор G-точки с гибкой головкой</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-24344-1299</t>
+          <t>id-20068-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -4150,12 +4192,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24344/24344_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20068/20068_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20068/20068_2_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALLE  настоящий мужчина! 16 бусинок нежно стимулируют стенки влагалища. 8 из них двигаются вверх и вниз по стволу игрушки, другие 8 шариков пульсируют. Такая стимуляция имитирует поступательные движения члена. Подобные ощущения женщина испытывает во время секса, но с BALLY эти ощущения в 2 раза ярче, потому что он не забывает о самой чувственной зоне  клиторе. Клиторальный массажер раздваивается. Это обеспечивает обхватывающий всесторонний массаж клитора. Игрушка изготовлена из бархатистого, как кожа, силикона. BALLE будет работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью магнитного USB-провода (в комплекте).  16 движущихся металлических шариков.  3 скорости движения шариков.  7 режимов клиторального стимулятора.  Магнитная зарядка. Вибратор с двигающимися шариками и клиторальным стимулятором Balle (7 режимов).  Вибратор с двигающимися шариками и клиторальным стимулятором Balle (7 режимов). Модель: jos-783002. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-ва</t>
+          <t xml:space="preserve">GAELL - настоящий сердцеед! Благодаря своей гибкой головке он найдет подход к любой девушке и легко найдет её сердце - точку G. Он имеет 10 режимов вибрации - это 10 крышесносных не похожих друг на друга оргазма. Особенностью этой игрушки является удобная кнопка управления, которая позволяет погружать вибратор полностью. Игрушка изготовлена из бархатистого силикона. Работает от 2AA батареек (не в комплекте). Гибкая головка Бесшумная мощная вибрация. Удобная кнопка управления. Стимулятор G-точки с гибкой головкой GAELL (10 режимов).  Стимулятор G-точки с гибкой головкой GAELL (10 режимов). Модель: jos-783008. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4193,27 +4235,27 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>25.3</v>
+        <v>23.76</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>21.6</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>15.4</v>
+        <v>19.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.85</v>
+        <v>3.63</v>
       </c>
       <c r="AG29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
@@ -4227,7 +4269,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>вибратор, магнитное зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4253,7 +4295,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4263,12 +4305,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Вибратор с подогревом и клиторальным</t>
+          <t>G-стимулятор с двумя моторами LOLY 10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-24345-1299</t>
+          <t>id-20482-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4284,12 +4326,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24345/24345_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_4_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELLY  горячий секс во всех смыслах! Всего за 1 минуту игрушка нагревается до 40 C. Теплая поверхность вызовет прилив крови к эрогенным зонам. Это повысит чувствительность и ощущения станут более яркими. Загнутая головка вибратора легко найдет заветную точку G и доведет до кульминации. Вибратор имеет два мощных мотора с 7 режимами вибрации. Клиторальный массажер раздваивается. Это обеспечивает обхватывающий всесторонний массаж клитора. Игрушки изготовлена из бархатистого силикона. ELLY будет работать до 4 часов непрерывно. Не требует батареек и заряжается с помощью магнитного USB-провода (в комплекте).  Нагревается до 40 C.  2 мотора.  Головка для точки G.  7 режимов вибрации. Вибратор с подогревом и клиторальным стимулятором JOS ELLY (2 мотора, 7 режимов).  Вибратор с подогревом и клиторальным стимулятором JOS ELLY (2 мотора, 7 режимов). Модель: jos-783003. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый с белым. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Чувствуй в 2 раза ярче! Два мощных мотора расположены на концах основного и клиторального стимуляторов. Вибрация от них направленна точно на самые горячие зоны - на клитор и точку G.Основание вибратора имеет гибкую головку. Она подстроится под индивидуальные особенности девушки и легко найдет точку G.Клиторальный массажер раздваивается. Это обеспечивает обхватывающий всесторонний массаж клитора. 10 режимов вибрации - это 10 крышесносных не похожих друг на друга оргазма. Особенностью этой игрушки является удобная кнопка управления.Игрушка изготовлена из бархатистого силикона. Работает от 2AA батареек (не в комплекте). Гибкая головка. Двойная стимуляция. Два мощных мотора. Бесшумная вибрация. Удобная кнопка управления.G-стимулятор с двумя моторами LOLY (10 режимов).  G-стимулятор с двумя моторами LOLY (10 режимов). Модель: jos-783013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4327,27 +4369,27 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>23.43</v>
+        <v>23.65</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="n">
-        <v>10.7</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>11.77</v>
+        <v>12.65</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.19</v>
+        <v>2.86</v>
       </c>
       <c r="AG30" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
@@ -4361,7 +4403,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>вибратор, магнитная USB-зарядка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4387,7 +4429,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -4397,12 +4439,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Бесшумный вибратор для двойной</t>
+          <t>Перезаряжаемый вибратор для двойной</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-20066-1299</t>
+          <t>id-27186-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4418,17 +4460,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20066/20066_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_6_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">НОВИНКА НА РЫНКЕ СЕКС-ИГРУШЕК! WOW-режим создан для мегаоргазмов! Как только вы почувствуете, что разрядка близко, нажмите на кнопку WOW (с изображением звезды)  и мгновенная усиленная вибрация умножит силу оргазма! Больше не надо искать самую мощную программу с помощью одной кнопки вы легко можете включить и выключить супер режим в пик наслаждения. 10 режимов вибрации - это 10 крышесносных не похожих друг на друга оргазма. Игрушка изготовлена из бархатистого силикона. Работает от 2AAA батареек (не в комплекте). Мгновенно включающийся WOW-режим. Бесшумная вибрация Удобная ручка.Бесшумный вибратор для двойной стимуляции JOLY (10 режимов).  Бесшумный вибратор для двойной стимуляции JOLY (10 режимов). Модель: jos-783005. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: фуксия с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вибратор имеет точно выверенный эргономичный дизайн и гибкое основание. Он подстроится под индивидуальные особенности каждой женщины и обязательно доберется до всех горячих точек. Изогнутая головка с мощным мотором создана для точки G. Изготовлен из высококачественного бархатистого силикона. Емкий аккумулятор (до 2 часов непрерывной работы!) заряжается от USB.Бесшумная вибрацияЭргономичный дизайнГибкое основание2 мощных мотора7 режимов вибрации.Перезаряжаемый вибратор для двойной стимуляции JAVI (7 режимов, 2 мотора).  Перезаряжаемый вибратор для двойной стимуляции JAVI (7 режимов, 2 мотора). Модель: jos-783016. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4443,7 +4485,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4461,27 +4503,27 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>21.56</v>
+        <v>23.65</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="n">
-        <v>10.2</v>
+        <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.22</v>
+        <v>13.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.63</v>
+        <v>3.135</v>
       </c>
       <c r="AG31" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
@@ -4495,7 +4537,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4515,13 +4557,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4531,12 +4573,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Стимулятор G-точки с гибкой головкой</t>
+          <t>Перезаряжаемый двигающийся язычок для</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-20068-1299</t>
+          <t>id-27284-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4552,17 +4594,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20068/20068_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20068/20068_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_7_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">GAELL - настоящий сердцеед! Благодаря своей гибкой головке он найдет подход к любой девушке и легко найдет её сердце - точку G. Он имеет 10 режимов вибрации - это 10 крышесносных не похожих друг на друга оргазма. Особенностью этой игрушки является удобная кнопка управления, которая позволяет погружать вибратор полностью. Игрушка изготовлена из бархатистого силикона. Работает от 2AA батареек (не в комплекте). Гибкая головка Бесшумная мощная вибрация. Удобная кнопка управления. Стимулятор G-точки с гибкой головкой GAELL (10 режимов).  Стимулятор G-точки с гибкой головкой GAELL (10 режимов). Модель: jos-783008. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Клиторальный язычок двигается вверх-вниз и имитирует восхитительные оральные ласки, которые неизменно приводят к фееричным оргазмам! Благодаря мягким ресничкам обычная стимуляция становится более пронизывающей. Емкий аккумулятор (до 2 часов непрерывной работы) заряжается от USB.Бархатистый силикон Без фталатов6 режимов вибрации и ротации Перезаряжается от USB.Перезаряжаемый двигающийся язычок для клиторальных ласк  ALICIA (6 режимов).  Перезаряжаемый двигающийся язычок для клиторальных ласк  ALICIA (6 режимов). Модель: jos-783019. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4577,7 +4619,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4592,31 +4634,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4.84</v>
+      </c>
       <c r="Y32" t="n">
-        <v>23.76</v>
+        <v>16.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>21.6</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>21.6</v>
+        <v>15</v>
       </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4629,7 +4667,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4655,7 +4693,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -4665,12 +4703,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>G-стимулятор с двумя моторами LOLY 10</t>
+          <t>Универсальный стимулятор для точки G и</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-20482-1299</t>
+          <t>id-23497-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4686,12 +4724,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20482/20482_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_8_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувствуй в 2 раза ярче! Два мощных мотора расположены на концах основного и клиторального стимуляторов. Вибрация от них направленна точно на самые горячие зоны - на клитор и точку G.Основание вибратора имеет гибкую головку. Она подстроится под индивидуальные особенности девушки и легко найдет точку G.Клиторальный массажер раздваивается. Это обеспечивает обхватывающий всесторонний массаж клитора. 10 режимов вибрации - это 10 крышесносных не похожих друг на друга оргазма. Особенностью этой игрушки является удобная кнопка управления.Игрушка изготовлена из бархатистого силикона. Работает от 2AA батареек (не в комплекте). Гибкая головка. Двойная стимуляция. Два мощных мотора. Бесшумная вибрация. Удобная кнопка управления.G-стимулятор с двумя моторами LOLY (10 режимов).  G-стимулятор с двумя моторами LOLY (10 режимов). Модель: jos-783013. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый с серебряным. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Эта игрушка достойна Оскара! Она способна перевоплощаться, как талантливый актер. Без насадки игрушка стимулирует точку G или клитор. Внутри головки пульсирует молоточек. Его ласки похожи на пульсирующие движения пальца. Наденьте насадку и игрушка превратится в вакуум-волновой стимулятор клитора.Игрушку можно использовать в воде (не более 30 минут). Аккумулятор заряжается с помощью магнитного USB-кабеля (работает без подзарядки 1,5 часа). - Пульсирующая головка - Насадка для вакуум-волновой стимуляции клитора - 9 режимов - Водонепроницаемость IPX7.Универсальный стимулятор для точки G и клитора OSCAR (9 режимов).  Универсальный стимулятор для точки G и клитора OSCAR (9 режимов). Модель: jos-783023. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: ярко-зеленый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4711,7 +4749,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4726,31 +4764,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.85</v>
+      </c>
       <c r="Y33" t="n">
-        <v>23.65</v>
+        <v>23.1</v>
       </c>
       <c r="Z33" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4763,7 +4797,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>стимулятор, клиторальная насадка, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4789,7 +4823,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4799,12 +4833,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор для двойной</t>
+          <t>Супер мощный вибратор с функцией</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-27186-1299</t>
+          <t>id-23086-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4820,17 +4854,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27186/27186_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_2_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор имеет точно выверенный эргономичный дизайн и гибкое основание. Он подстроится под индивидуальные особенности каждой женщины и обязательно доберется до всех горячих точек. Изогнутая головка с мощным мотором создана для точки G. Изготовлен из высококачественного бархатистого силикона. Емкий аккумулятор (до 2 часов непрерывной работы!) заряжается от USB.Бесшумная вибрацияЭргономичный дизайнГибкое основание2 мощных мотора7 режимов вибрации.Перезаряжаемый вибратор для двойной стимуляции JAVI (7 режимов, 2 мотора).  Перезаряжаемый вибратор для двойной стимуляции JAVI (7 режимов, 2 мотора). Модель: jos-783016. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Функция TouchSensor - это настоящий полёт эротических фантазий! На каждое касание SENSY будет отвечать вам вибрацией. Чем сильнее будет ваше касание, тем сильнее будет его вибрация. Также в SENSY есть 10 режимов вибрации, каждую из которых можно регулировать по мощности кнопками + и -. Изготовлен из высококачественного бархатистого силикона.    10 режимов вибрации    Функция TouchSensor    Регулируемая мощность вибрации    Бархатистый силикон    Мощная вибрация.Супер мощный вибратор с функцией TouchSensor JOS SENSY (10 режимов).  Супер мощный вибратор с функцией TouchSensor JOS SENSY (10 режимов). Модель: jos-783025. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: мятный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4845,7 +4879,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>высококачественный силикон</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4863,27 +4897,27 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>23.65</v>
+        <v>22</v>
       </c>
       <c r="Z34" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>13.75</v>
+        <v>11.55</v>
       </c>
       <c r="AF34" t="n">
-        <v>3.135</v>
+        <v>3.52</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
@@ -4923,7 +4957,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4933,12 +4967,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Перезаряжаемый двигающийся язычок для</t>
+          <t>Пульсатор с клиторальным вибратором и</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-27284-1299</t>
+          <t>id-22312-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4954,17 +4988,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27284/27284_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22312/22312_3_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клиторальный язычок двигается вверх-вниз и имитирует восхитительные оральные ласки, которые неизменно приводят к фееричным оргазмам! Благодаря мягким ресничкам обычная стимуляция становится более пронизывающей. Емкий аккумулятор (до 2 часов непрерывной работы) заряжается от USB.Бархатистый силикон Без фталатов6 режимов вибрации и ротации Перезаряжается от USB.Перезаряжаемый двигающийся язычок для клиторальных ласк  ALICIA (6 режимов).  Перезаряжаемый двигающийся язычок для клиторальных ласк  ALICIA (6 режимов). Модель: jos-783019. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Ваши оргазмы станут ярче с многофункциональным вибромассажером MILLY. Максимум реальных ощущений при контакте - поступательные движения (вверх-вниз) и нагрев до человеческой температуры тела помогут представить реального партнера во время ласк. Рельефная поверхность придаст ласкам особую пикантность. Изготовлен из высококачественного бархатистого силикона.- 7 режимов вибрации клиторального стимулятора- 7 режимов фрикций- нагревается до 40 C.Пульсатор с клиторальным вибратором и подогревом JOS Milly (7 режимов).  Пульсатор с клиторальным вибратором и подогревом JOS Milly (7 режимов). Модель: jos-783026. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Пульсаторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4994,27 +5028,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X35" t="n">
-        <v>4.84</v>
-      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
+      <c r="AD35" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH35" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5027,7 +5065,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -5053,7 +5091,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5063,12 +5101,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Универсальный стимулятор для точки G и</t>
+          <t>Вакуумный стимулятор клитора с</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-23497-1299</t>
+          <t>id-24108-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -5084,12 +5122,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23497/23497_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_8_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта игрушка достойна Оскара! Она способна перевоплощаться, как талантливый актер. Без насадки игрушка стимулирует точку G или клитор. Внутри головки пульсирует молоточек. Его ласки похожи на пульсирующие движения пальца. Наденьте насадку и игрушка превратится в вакуум-волновой стимулятор клитора.Игрушку можно использовать в воде (не более 30 минут). Аккумулятор заряжается с помощью магнитного USB-кабеля (работает без подзарядки 1,5 часа). - Пульсирующая головка - Насадка для вакуум-волновой стимуляции клитора - 9 режимов - Водонепроницаемость IPX7.Универсальный стимулятор для точки G и клитора OSCAR (9 режимов).  Универсальный стимулятор для точки G и клитора OSCAR (9 режимов). Модель: jos-783023. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: ярко-зеленый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">DINGO - настоящая находка для охотниц за множественными оргазмами. Вакуум-волновой стимулятор клитора подарит яркий, словно фейерверк, оргазм. Но на этом способности DINGO не заканчиваются. Язычок способен донести вас до совершенно новых высот в ощущениях. Используйте каждую функцию по отдельности или чередуйте, чтобы получить новые наслаждения. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.- 7 режимов работы язычка- 3 режима вакуум-волновой стимуляции- Бархатистый силикон.Вакуумный стимулятор клитора с двигающимся язычком JOS DINGO (7+3 режимов).  Вакуумный стимулятор клитора с двигающимся язычком JOS DINGO (7+3 режимов). Модель: jos-783028. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: нежно-мятный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5109,7 +5147,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -5125,22 +5163,20 @@
         </is>
       </c>
       <c r="W36" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
@@ -5157,7 +5193,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>стимулятор, клиторальная насадка, магнитное зарядное USB-устройство</t>
+          <t>стимулятор клитора, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5183,7 +5219,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -5193,12 +5229,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Супер мощный вибратор с функцией</t>
+          <t>Перезаряжаемый вибратор с клиторальным</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-23086-1299</t>
+          <t>id-24110-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -5214,12 +5250,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23086/23086_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_10_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Функция TouchSensor - это настоящий полёт эротических фантазий! На каждое касание SENSY будет отвечать вам вибрацией. Чем сильнее будет ваше касание, тем сильнее будет его вибрация. Также в SENSY есть 10 режимов вибрации, каждую из которых можно регулировать по мощности кнопками + и -. Изготовлен из высококачественного бархатистого силикона.    10 режимов вибрации    Функция TouchSensor    Регулируемая мощность вибрации    Бархатистый силикон    Мощная вибрация.Супер мощный вибратор с функцией TouchSensor JOS SENSY (10 режимов).  Супер мощный вибратор с функцией TouchSensor JOS SENSY (10 режимов). Модель: jos-783025. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: мятный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Игривый язычок MILO будет нежно и деликатно доводить вас до новых вершин наслаждения. Увеличенная и слегка загнутая головка вибратора имеет рельефную поверхность - это обеспечит насыщенную стимуляцию точки G. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.- 10 режимов вибрации- 3 режима работы язычка- Бархатистый силикон- Мощная вибрация.Перезаряжаемый вибратор с клиторальным язычком JOS MILO (10 режимов).  Перезаряжаемый вибратор с клиторальным язычком JOS MILO (10 режимов). Модель: jos-783029. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: нежно-мятный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5257,27 +5293,27 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>22</v>
+        <v>21.45</v>
       </c>
       <c r="Z37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>11.55</v>
+        <v>13.75</v>
       </c>
       <c r="AF37" t="n">
-        <v>3.52</v>
+        <v>3.19</v>
       </c>
       <c r="AG37" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
@@ -5291,7 +5327,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>вибратор, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5317,7 +5353,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5327,12 +5363,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Вакуумный стимулятор клитора с</t>
+          <t>Супер мощный вибратор для тройной</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-24108-1299</t>
+          <t>id-24111-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5348,12 +5384,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24108/24108_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_2_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">DINGO - настоящая находка для охотниц за множественными оргазмами. Вакуум-волновой стимулятор клитора подарит яркий, словно фейерверк, оргазм. Но на этом способности DINGO не заканчиваются. Язычок способен донести вас до совершенно новых высот в ощущениях. Используйте каждую функцию по отдельности или чередуйте, чтобы получить новые наслаждения. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.- 7 режимов работы язычка- 3 режима вакуум-волновой стимуляции- Бархатистый силикон.Вакуумный стимулятор клитора с двигающимся язычком JOS DINGO (7+3 режимов).  Вакуумный стимулятор клитора с двигающимся язычком JOS DINGO (7+3 режимов). Модель: jos-783028. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: нежно-мятный. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">SPANKY - это лучший любовник для девушки, которая хочет всего и сразу. Вагинальная стимуляция, клиторальная и анальная - никогда еще наслаждение не было столь всеобъемлющим. У SPANKY 2 моторва: в основном (среднем) вибраторе и у основания клиторального отростка. Ушки кролика игриво шевелятся и деликатно стимулируют клитор. Плавно расширяющийся анальный отросток идеально подходит для постепенного ввода. Игрушка изготовлена из высококачественного бархатистого силикона. Заряжается от USB.- 7 режимов вибрации- 3 скорости вибрации- 2 мотора- тройная стимуляция.Супер мощный вибратор для тройной стимуляции JOS SPANKY (7 режимов).  Супер мощный вибратор для тройной стимуляции JOS SPANKY (7 режимов). Модель: jos-783030. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5373,7 +5409,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5388,25 +5424,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W38" t="n">
-        <v>8</v>
-      </c>
-      <c r="X38" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11</v>
-      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2.8</v>
+      </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5419,7 +5457,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>стимулятор клитора, зарядное USB-устройство</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5445,7 +5483,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5455,12 +5493,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор с клиторальным</t>
+          <t>Супер мощный вибратор со стимулирующим</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-24110-1299</t>
+          <t>id-24109-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5476,12 +5514,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24110/24110_10_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_8_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игривый язычок MILO будет нежно и деликатно доводить вас до новых вершин наслаждения. Увеличенная и слегка загнутая головка вибратора имеет рельефную поверхность - это обеспечит насыщенную стимуляцию точки G. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB.- 10 режимов вибрации- 3 режима работы язычка- Бархатистый силикон- Мощная вибрация.Перезаряжаемый вибратор с клиторальным язычком JOS MILO (10 режимов).  Перезаряжаемый вибратор с клиторальным язычком JOS MILO (10 режимов). Модель: jos-783029. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: нежно-мятный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вибратор со стимулирующим шариком BEADSY - эксперт по глубоким оргазмам. Его эргономичная загнутая форма дарит насыщенную стимуляцию точки G. А упругий стимулирующий шарик у основания вибратора доводит до кульминационной развязки даже тогда, когда к этому не располагает настроение. Двигаясь вверх и вниз, шарик стимулирует вход во влагалище и усиливает кровообращение. Волнующее возбуждение, активация эрогенных зон, тот самый оргазм - c BEADSY это легко! Вибратор изготовлен из высококачественного бархатистого силикона. Заряжается от USB.- 7 режимов вибрации- 3 скорости движения шарика- бархатистый силикон- стимулирующий шарик.Супер мощный вибратор со стимулирующим шариком JOS BEADSY (7 режимов).  Супер мощный вибратор со стимулирующим шариком JOS BEADSY (7 режимов). Модель: jos-783031. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5501,7 +5539,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5519,27 +5557,23 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="n">
-        <v>21.45</v>
+        <v>22.88</v>
       </c>
       <c r="Z39" t="n">
-        <v>19.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>19.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>13.75</v>
-      </c>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>3.19</v>
+        <v>3.135</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
@@ -5579,7 +5613,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5589,12 +5623,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Супер мощный вибратор для тройной</t>
+          <t>Сенсорный G-вибратор JOS Twig 5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-24111-1299</t>
+          <t>id-24557-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5610,12 +5644,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24111/24111_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_4_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">SPANKY - это лучший любовник для девушки, которая хочет всего и сразу. Вагинальная стимуляция, клиторальная и анальная - никогда еще наслаждение не было столь всеобъемлющим. У SPANKY 2 моторва: в основном (среднем) вибраторе и у основания клиторального отростка. Ушки кролика игриво шевелятся и деликатно стимулируют клитор. Плавно расширяющийся анальный отросток идеально подходит для постепенного ввода. Игрушка изготовлена из высококачественного бархатистого силикона. Заряжается от USB.- 7 режимов вибрации- 3 скорости вибрации- 2 мотора- тройная стимуляция.Супер мощный вибратор для тройной стимуляции JOS SPANKY (7 режимов).  Супер мощный вибратор для тройной стимуляции JOS SPANKY (7 режимов). Модель: jos-783030. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Twig - чувствительный партнер для ваших ярких оргазмов. Благодаря сенсорному управлению, вы сможете легко управлять мощностью вибрации. Для этого просто проведите по светодиодной веточке пальцем: вправо - для увеличения мощности, влево - для уменьшения. 5 разных режимов вибрации подарит вам настоящий фейерверк ярких оргазмов. Слегка загнутая головка обеспечит стимуляцию точки G. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB. Сенсорный G-вибратор JOS Twig (5 режимов, 3 скорости).  Сенсорный G-вибратор JOS Twig (5 режимов, 3 скорости). Модель: jos-783032. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5653,23 +5687,23 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="n">
-        <v>23.1</v>
+        <v>22.55</v>
       </c>
       <c r="Z40" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>3.08</v>
+        <v>2.915</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
@@ -5709,7 +5743,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5719,12 +5753,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Супер мощный вибратор со стимулирующим</t>
+          <t>Вакуум-волновой вибратор с секретным</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-24109-1299</t>
+          <t>id-26537-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5740,17 +5774,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24109/24109_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_15_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_7_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор со стимулирующим шариком BEADSY - эксперт по глубоким оргазмам. Его эргономичная загнутая форма дарит насыщенную стимуляцию точки G. А упругий стимулирующий шарик у основания вибратора доводит до кульминационной развязки даже тогда, когда к этому не располагает настроение. Двигаясь вверх и вниз, шарик стимулирует вход во влагалище и усиливает кровообращение. Волнующее возбуждение, активация эрогенных зон, тот самый оргазм - c BEADSY это легко! Вибратор изготовлен из высококачественного бархатистого силикона. Заряжается от USB.- 7 режимов вибрации- 3 скорости движения шарика- бархатистый силикон- стимулирующий шарик.Супер мощный вибратор со стимулирующим шариком JOS BEADSY (7 режимов).  Супер мощный вибратор со стимулирующим шариком JOS BEADSY (7 режимов). Модель: jos-783031. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вибратор с функцией вакуумной стимуляции клитора JOS JUNA - инструмент для искусной игры на струнах вашей чувственности и экстаза.Настоящая находка для тех, кому нужно все и сразу! Необычный футуристичный дизайн сочетает в себе множество вариантов для удовольствия. JUNA способна удовлетворить самые непристойные желания и гарантирует оргазм за считанные минуты.Вакуум-волновой стимулятор работает в 5 режимах - от нежного до самого мощного. Достаточно приложить раструб к клитору и досчитать до 100, чтобы JUNA унесла вас к вершинам самого мощного и яркого оргазма. Погружная часть вибратора дополнит ваше путешествие к удовольствию своей изогнутой головкой с мощным мотором.Зона G получит активную стимуляцию благодаря 10 режимам вибрации. Пульсирующий шарик в средней части ствола обладает 5 режимами пульсации. JUNA  тройная стимуляция для оргазма и сквирта взрывной силы.    элегантный розовый цвет и высококачественный бархатистый силикон    заряжается от USB    10 режимов вибрации    5 вакуум-волновых режимов    5 режимов пульсации шарика    время работы 1 час    время зарядки 1,5 часа.Вакуум-волновой вибратор с секретным шариком JOS JUNA (10 + 5 режимов).  Вакуум-волновой вибратор с секретным шариком JOS JUNA (10 + 5 режимов). Модель: jos-783033. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5765,7 +5799,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5783,23 +5817,27 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>22.88</v>
+        <v>17.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>20.8</v>
+        <v>16</v>
       </c>
       <c r="AA41" t="n">
-        <v>20.8</v>
+        <v>16</v>
       </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>13.75</v>
+      </c>
       <c r="AF41" t="n">
-        <v>3.135</v>
+        <v>3.08</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
@@ -5839,7 +5877,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -5849,12 +5887,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Сенсорный G-вибратор JOS Twig 5</t>
+          <t>Нагревающийся вибратор с двигающейся</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-24557-1299</t>
+          <t>id-26536-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5870,17 +5908,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24557/24557_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_13_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twig - чувствительный партнер для ваших ярких оргазмов. Благодаря сенсорному управлению, вы сможете легко управлять мощностью вибрации. Для этого просто проведите по светодиодной веточке пальцем: вправо - для увеличения мощности, влево - для уменьшения. 5 разных режимов вибрации подарит вам настоящий фейерверк ярких оргазмов. Слегка загнутая головка обеспечит стимуляцию точки G. Изготовлен из высококачественного бархатистого силикона. Заряжается от USB. Сенсорный G-вибратор JOS Twig (5 режимов, 3 скорости).  Сенсорный G-вибратор JOS Twig (5 режимов, 3 скорости). Модель: jos-783032. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">REDLI Вибратор с двигающейся головкой Redli от JOS  яркий и бойкий новичок в твоей прикроватной тумбочке. Redli не даст тебе скучать и доставит много приятных ощущений и ярких оргазмов.Мощная вибрация и возвратно-поступательные движения головки вибратора не оставят точку G без внимания. Ласковые и настойчивые движения гарантированно доведут тебя до оргазма. Клиторальный отросток будет нежно, но со знанием дела стимулировать эрогенную зону. Дополнит восхитительную игру функция нагрева  комфорт и реалистичность ощущений. Сочный красный цвет намекает на страсть и неистовые оргазмы. Изготовлен из высококачественного бархатистого силикона.    заряжается от USB    10 режимов работы    бархатистый силикон    время работы 1 час    время зарядки 1,5 часа.Нагревающийся вибратор с двигающейся головкой для G-точки JOS Redli (10 режимов).  Нагревающийся вибратор с двигающейся головкой для G-точки JOS Redli (10 режимов). Модель: jos-783034. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5913,23 +5951,27 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="n">
-        <v>22.55</v>
+        <v>23.65</v>
       </c>
       <c r="Z42" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
+      <c r="AD42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>13.75</v>
+      </c>
       <c r="AF42" t="n">
-        <v>2.915</v>
+        <v>3.355</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
@@ -5969,7 +6011,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5979,12 +6021,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Вакуум-волновой вибратор с секретным</t>
+          <t>Перезаряжаемый вакуумный вибратор 2 в 1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-26537-1299</t>
+          <t>id-26535-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -6000,12 +6042,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_13_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_14_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_15_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26537/26537_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_12_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибратор с функцией вакуумной стимуляции клитора JOS JUNA - инструмент для искусной игры на струнах вашей чувственности и экстаза.Настоящая находка для тех, кому нужно все и сразу! Необычный футуристичный дизайн сочетает в себе множество вариантов для удовольствия. JUNA способна удовлетворить самые непристойные желания и гарантирует оргазм за считанные минуты.Вакуум-волновой стимулятор работает в 5 режимах - от нежного до самого мощного. Достаточно приложить раструб к клитору и досчитать до 100, чтобы JUNA унесла вас к вершинам самого мощного и яркого оргазма. Погружная часть вибратора дополнит ваше путешествие к удовольствию своей изогнутой головкой с мощным мотором.Зона G получит активную стимуляцию благодаря 10 режимам вибрации. Пульсирующий шарик в средней части ствола обладает 5 режимами пульсации. JUNA  тройная стимуляция для оргазма и сквирта взрывной силы.    элегантный розовый цвет и высококачественный бархатистый силикон    заряжается от USB    10 режимов вибрации    5 вакуум-волновых режимов    5 режимов пульсации шарика    время работы 1 час    время зарядки 1,5 часа.Вакуум-волновой вибратор с секретным шариком JOS JUNA (10 + 5 режимов).  Вакуум-волновой вибратор с секретным шариком JOS JUNA (10 + 5 режимов). Модель: jos-783033. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">KISOM Гипер-функциональный стимулятор KISOM от JOS  абсолютно уникальный девайс для получения удовольствия разнообразными способами. Каждая часть удивительного стимулятора KISOM создана для ярких наслажденийНа гибкой головке расположен вакуум-волновой стимулятор клитора, который доставит тебя на вершину ярчайшего оргазма в считанные минуты. Уверены, что ты уже слышала про бесконтактную стимуляцию клитора. А если еще нет, то срочно надо это исправлять.С обратной стороны головки ты найдешь пульсирующий шарик для стимуляции эрогенных зон. Основание стимулятора  это рельефный вибратор со слегка увеличенной головкой, которой очень удобно стимулировать зону G. Только представь сколько вариантов для интимной игры дарит тебе KISOM. Персональная волшебная палочка исполнит все твои сексуальные желания. KISOM изготовлен из высококачественного бархатистого силикона, поверь, его не захочется выпускать из рук.    заряжается от USB.    10 режимов вакуум-волновой стимуляции    10 режимов вибрации    гибкая головка    время работы 1 час    время зарядки 1,5 часа.Перезаряжаемый вакуумный вибратор 2 в 1 JOS Kisom (10 + 10 режимов).  Перезаряжаемый вакуумный вибратор 2 в 1 JOS Kisom (10 + 10 режимов). Модель: jos-783035. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клитора</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -6043,27 +6085,23 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>17.6</v>
+        <v>26.95</v>
       </c>
       <c r="Z43" t="n">
-        <v>16</v>
+        <v>24.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>16</v>
+        <v>24.5</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13.75</v>
-      </c>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>3.08</v>
+        <v>4.4</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
@@ -6077,7 +6115,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>вибратор, магнитное зарядное USB-устройство</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -6103,7 +6141,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -6113,12 +6151,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Нагревающийся вибратор с двигающейся</t>
+          <t>Вакуум-волновой вибратор с подогревом</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-26536-1299</t>
+          <t>id-26480-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -6134,12 +6172,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26536/26536_13_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26480/26480_12_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">REDLI Вибратор с двигающейся головкой Redli от JOS  яркий и бойкий новичок в твоей прикроватной тумбочке. Redli не даст тебе скучать и доставит много приятных ощущений и ярких оргазмов.Мощная вибрация и возвратно-поступательные движения головки вибратора не оставят точку G без внимания. Ласковые и настойчивые движения гарантированно доведут тебя до оргазма. Клиторальный отросток будет нежно, но со знанием дела стимулировать эрогенную зону. Дополнит восхитительную игру функция нагрева  комфорт и реалистичность ощущений. Сочный красный цвет намекает на страсть и неистовые оргазмы. Изготовлен из высококачественного бархатистого силикона.    заряжается от USB    10 режимов работы    бархатистый силикон    время работы 1 час    время зарядки 1,5 часа.Нагревающийся вибратор с двигающейся головкой для G-точки JOS Redli (10 режимов).  Нагревающийся вибратор с двигающейся головкой для G-точки JOS Redli (10 режимов). Модель: jos-783034. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: красный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">ENILA Вибратор с вакуум-волновой стимуляцией ENILA от JOS  уникальный по своим функциям девайс для тех, кому мало простого вибратора. ENILA  воплощение женских фантазий о самых ярких множественных оргазмах. С первой встречи ENILA станет незаменимым помощником благодаря уникальному сочетанию в одном устройстве разнообразных функций.С одной стороны  классический вибратор-кролик с отростком для стимуляции клитора. Ребристая поверхность обеспечивает деликатную стимуляцию ваших интимных зон. Функция нагрева вибратора обеспечит комфортные ощущения и добавит пикантности и страсти в вашу игру. С другой стороны  вакуум-волновой стимулятор для ярких клиторальных оргазмов. Внутри разъема специальный шарик, который оказывает дополнительную стимуляцию клитора. Дизайн ENILA разработан с учетом анатомических особенностей женщин. Сочный розовый цвет и бархатистый высококачественный силикон  перед ENILA невозможно устоять.    заряжается от USB    10 режимов вибрации    функция нагрева    5 режимов вакуум-волновой стимуляции    бархатистый силикон    время р</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6177,27 +6215,27 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>23.65</v>
+        <v>25.3</v>
       </c>
       <c r="Z44" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="AA44" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
-        <v>13.75</v>
+        <v>13.2</v>
       </c>
       <c r="AF44" t="n">
-        <v>3.355</v>
+        <v>0.33</v>
       </c>
       <c r="AG44" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
@@ -6231,28 +6269,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вакуумный вибратор 2 в 1</t>
+          <t>Ротационный нагревающийся вибратор с</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-26535-1299</t>
+          <t>id-26538-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6263,17 +6301,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>вибратор, магнитное зарядное USB-устройство</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26535/26535_12_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26538/26538_26538_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">KISOM Гипер-функциональный стимулятор KISOM от JOS  абсолютно уникальный девайс для получения удовольствия разнообразными способами. Каждая часть удивительного стимулятора KISOM создана для ярких наслажденийНа гибкой головке расположен вакуум-волновой стимулятор клитора, который доставит тебя на вершину ярчайшего оргазма в считанные минуты. Уверены, что ты уже слышала про бесконтактную стимуляцию клитора. А если еще нет, то срочно надо это исправлять.С обратной стороны головки ты найдешь пульсирующий шарик для стимуляции эрогенных зон. Основание стимулятора  это рельефный вибратор со слегка увеличенной головкой, которой очень удобно стимулировать зону G. Только представь сколько вариантов для интимной игры дарит тебе KISOM. Персональная волшебная палочка исполнит все твои сексуальные желания. KISOM изготовлен из высококачественного бархатистого силикона, поверь, его не захочется выпускать из рук.    заряжается от USB.    10 режимов вакуум-волновой стимуляции    10 режимов вибрации    гибкая головка    время работы 1 час    время зарядки 1,5 часа.Перезаряжаемый вакуумный вибратор 2 в 1 JOS Kisom (10 + 10 режимов).  Перезаряжаемый вакуумный вибратор 2 в 1 JOS Kisom (10 + 10 режимов). Модель: jos-783035. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: фиолетовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">LIXY ВИБРАТОР С UP&amp;DOWN ФУНКЦИЕЙ Многофункциональный источник оргазмов Lixy от JOS к твоим услугам! Уникальный вибратор представляет собой классический вибратор-кролик с множеством достоинств. Познакомьтесь поближе с Lixy и оцените все его достоинства.Выразительный дизайн Нежные плавные изгибы выпуклостей и складок облегают ствол вибратора. Закрученный спиральный рельеф гарантирует чувственный контакт и незабываемые ощущения от стимуляции интимных зон. Притягательный зефирно-розовый цвет  отдельный вид визуального и тактильного удовольствия. Невозможно устоять перед Lixy, который изготовлен из высококачественного бархатистого силикона.Теплый и мягкий У Lixy есть функция нагрева  для максимально реального и комфортного контакта. Lixy позаботится о ваших ощущениях!Разнообразие режимов С Lixy найти для себя идеальную комбинацию виброрежимов не составит труда. 20 различных вариантов работы Lixy в 2 мощных моторах (в погружной части вибратора и в клиторальном отростке) подарят массу ярких ощущений и множественных глубоких оргазмов.Клиторальный отросток Три язычка разной длины в клиторальном отростке нежно и деликатно стимулируют клитор. Играйте с режимами  наслаждайтесь яркими впечатлениями и достигайте кульминации. Ведь ни один любовник не способен доставить столько удовольствия клиторальными ласками как Lixy.Функция Up&amp;Down С помощью функции Up&amp;Down Lixy совершает возвратно-поступательные движения и одновременно с этим головка движется по кругу в небольшом диапазоне. Все, чтобы сделать вашу интимную игру незабываемой есть в Lixy.    заряжается от USB    20 режимов вибрации    3 режима возвратно-поступательных движений    2 мощных мотора    бархатистый силикон    время зарядки 1,5 часа.Ротационный нагревающийся вибратор с функцией Up&amp;Down JOS Lixy (20режимов).  Ротационный нагревающийся вибратор с функцией Up. Модель: jos-783037. Китай. Down JOS Lixy (20режимов). Цвет: для женщин. высококачественный силикон с бархатистой поверхностьюБренд: Lasciva. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6283,19 +6321,15 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Секс-игрушки</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
-        </is>
-      </c>
+          <t>Секс-игрушки</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
@@ -6310,25 +6344,15 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>4</v>
-      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6341,7 +6365,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>общая длина 23 см, глубина проникновения 13,5 см, диаметр 3,3-3,6 см</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6361,28 +6385,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ротационный нагревающийся вибратор с</t>
+          <t>G-вибратор с вакуумно-волновой</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-26538-1299</t>
+          <t>id-27268-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6393,35 +6417,39 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>вибратор, магнитное зарядное USB-устройство</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26538/26538_26538_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_6_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIXY ВИБРАТОР С UP&amp;DOWN ФУНКЦИЕЙ Многофункциональный источник оргазмов Lixy от JOS к твоим услугам! Уникальный вибратор представляет собой классический вибратор-кролик с множеством достоинств. Познакомьтесь поближе с Lixy и оцените все его достоинства.Выразительный дизайн Нежные плавные изгибы выпуклостей и складок облегают ствол вибратора. Закрученный спиральный рельеф гарантирует чувственный контакт и незабываемые ощущения от стимуляции интимных зон. Притягательный зефирно-розовый цвет  отдельный вид визуального и тактильного удовольствия. Невозможно устоять перед Lixy, который изготовлен из высококачественного бархатистого силикона.Теплый и мягкий У Lixy есть функция нагрева  для максимально реального и комфортного контакта. Lixy позаботится о ваших ощущениях!Разнообразие режимов С Lixy найти для себя идеальную комбинацию виброрежимов не составит труда. 20 различных вариантов работы Lixy в 2 мощных моторах (в погружной части вибратора и в клиторальном отростке) подарят массу ярких ощущений и множественных глубоких оргазмов.Клиторальный отросток Три язычка разной длины в клиторальном отростке нежно и деликатно стимулируют клитор. Играйте с режимами  наслаждайтесь яркими впечатлениями и достигайте кульминации. Ведь ни один любовник не способен доставить столько удовольствия клиторальными ласками как Lixy.Функция Up&amp;Down С помощью функции Up&amp;Down Lixy совершает возвратно-поступательные движения и одновременно с этим головка движется по кругу в небольшом диапазоне. Все, чтобы сделать вашу интимную игру незабываемой есть в Lixy.    заряжается от USB    20 режимов вибрации    3 режима возвратно-поступательных движений    2 мощных мотора    бархатистый силикон    время зарядки 1,5 часа.Ротационный нагревающийся вибратор с функцией Up&amp;Down JOS Lixy (20режимов).  Ротационный нагревающийся вибратор с функцией Up. Модель: jos-783037. Китай. Down JOS Lixy (20режимов). Цвет: для женщин. высококачественный силикон с бархатистой поверхностьюРетейлер: Wisteria. </t>
+          <t xml:space="preserve">DANVI Вибратор с вакуум-волновой стимуляцией Откройте для себя новые границы удовольствия вместе с Danvi! Вакуум-волновая стимуляция сможет подарить яркий оргазм в считанные минуты. Пробуйте разные сценарии удовольствия, используя 10 различных режимов работы Danvi. Хвостик вибратора слегка загнут и будет стимулировать точку G. Ребристая поверхность головки доставить яркие ощущения. Изготовлен из высококачественного бархатистого силикона.10 режимов вибрации10 режимов вакуум-волновой стимуляцииБархатистый силиконЗаряжается от USBВремя до полной зарядки - 2 часа. Время работы - 1 час. G-вибратор с вакуумно-волновой стимуляцией DANVI (10+10 режимов).  G-вибратор с вакуумно-волновой стимуляцией DANVI (10+10 режимов). Модель: jos-783039. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
@@ -6436,15 +6464,25 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="Y46" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>21.5</v>
+      </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
+      <c r="AF46" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2.65</v>
+      </c>
       <c r="AH46" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6457,7 +6495,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>общая длина 23 см, глубина проникновения 13,5 см, диаметр 3,3-3,6 см</t>
+          <t>стимулятор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6483,7 +6521,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6493,12 +6531,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Пульсатор банан с поступательными</t>
+          <t>Многофункциональный стимулятор с</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-27267-1299</t>
+          <t>id-27265-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6514,12 +6552,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27267/27267_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_3_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">B-NANA - массажер с имитацией фрикций. Яркий и вкусный дизайн массажера не оставит никого равнодушным! Имитация головки и ребристая поверхность ствола позволит испытать ощущения на максимуме. Главная фишка - это возвратно-поступательные движения массажера, которые имитируют фрикции.B-NANA работает в 8 различных режимах. Мощные оргазмы гарантированы. Комфортное управление одной кнопкой. Изготовлен из высококачественного бархатистого силикона.8 режимов возвратно-поступательных движенийРеалистичная головка и ребристая поверхностьВремя до полной зарядки - 2 часаВремя работы - 1,5 часЗаряжается от USB.Пульсатор банан с поступательными движениями JOS B-NANA (8 режимов).  Пульсатор банан с поступательными движениями JOS B-NANA (8 режимов). Модель: jos-783038. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Пульсаторы. Цвет: желтый, белый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">NIMKA - это идеальный мультифункциональный стимулятор для самоудовлетворения и прелюдий с партнером. В этом малыше множество функций для вашего удовольствия! NIMKA изготовлен из высококачественного бархатистого силикона. Вакуум-волновая стимуляция клитора доставит яркий и гарантированный оргазм.Язычок на кончике игрушки и пульсирующий шарик на основании созданы для стимуляции эрогенных зон. Стимулируйте ваши любимые эрогенный зоны тремя разными способами.7 режимов работыЯзычок для стимуляцииПульсирующий шарикВремя до полной зарядки - 2 часаВремя работы - 1 часЗаряжается от USB.Многофункциональный стимулятор с вакуумной стимуляцией 3 в 1 NIMKA (7 режимов).  Многофункциональный стимулятор с вакуумной стимуляцией 3 в 1 NIMKA (7 режимов). Модель: jos-783040. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: ярко-розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6554,31 +6592,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4.84</v>
+      </c>
       <c r="Y47" t="n">
-        <v>21.45</v>
+        <v>9.9</v>
       </c>
       <c r="Z47" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6611,28 +6645,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>G-вибратор с вакуумно-волновой</t>
+          <t>Двусторонний мастурбатор (вагина+анус)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-27268-1299</t>
+          <t>id-20484-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -6648,17 +6682,17 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27268/27268_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_4_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">DANVI Вибратор с вакуум-волновой стимуляцией Откройте для себя новые границы удовольствия вместе с Danvi! Вакуум-волновая стимуляция сможет подарить яркий оргазм в считанные минуты. Пробуйте разные сценарии удовольствия, используя 10 различных режимов работы Danvi. Хвостик вибратора слегка загнут и будет стимулировать точку G. Ребристая поверхность головки доставить яркие ощущения. Изготовлен из высококаче</t>
+          <t xml:space="preserve">Эта стимуляция отличается от близости с женщиной и обычной мастурбации! Совершенно иные, насыщенные и колоритные ощущения, приводящие к взрывному оргазму.Двусторонний мастурбатор дает выбор: анус или нежная киска. Они имеют разный внутренний рельеф и диаметр входа. Удобный силиконовый цилиндр гарантирует максимальный комфорт в использовании. Бархатистый материал. Нескользящий силиконовый цилиндр. Можно использовать в воде. Два входа с разным внутренним рельефом. Двусторонний мастурбатор (вагина+анус) LULU.  Двусторонний мастурбатор (вагина+анус) LULU. Модель: jos-784002. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный с синим. Материал: TPR, силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Гонконг</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6673,7 +6707,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>TPR, силикон</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6688,27 +6722,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>6.82</v>
+      </c>
       <c r="Y48" t="n">
-        <v>23.65</v>
+        <v>15.4</v>
       </c>
       <c r="Z48" t="n">
-        <v>21.5</v>
+        <v>14</v>
       </c>
       <c r="AA48" t="n">
-        <v>21.5</v>
+        <v>14</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="n">
-        <v>2.915</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6721,7 +6755,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6741,28 +6775,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Многофункциональный стимулятор с</t>
+          <t>Двусторонний мастурбатор JOS NADIN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-27265-1299</t>
+          <t>id-25992-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6778,17 +6812,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_11_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_10_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_12_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27265/27265_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_5_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIMKA - это идеальный мультифункциональный стимулятор для самоудовлетворения и прелюдий с партнером. В этом малыше множество функций для вашего удовольствия! NIMKA изготовлен из высококачественного бархатистого силикона. Вакуум-волновая стимуляция клитора доставит яркий и гарантированный оргазм.Язычок на кончике игрушки и пульсирующий шарик на основании созданы для стимуляции эрогенных зон. Стимулируйте ваши любимые эрогенный зоны тремя разными способами.7 режимов работыЯзычок для стимуляцииПульсирующий шарикВремя до полной зарядки - 2 часаВремя работы - 1 часЗаряжается от USB.Многофункциональный стимулятор с вакуумной стимуляцией 3 в 1 NIMKA (7 режимов).  Многофункциональный стимулятор с вакуумной стимуляцией 3 в 1 NIMKA (7 режимов). Модель: jos-783040. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные сти</t>
+          <t xml:space="preserve">Эта стимуляция отличается от близости с женщиной и обычной мастурбации! Совершенно иные, насыщенные и колоритные ощущения, приводящие к взрывному оргазму. Двусторонний мастурбатор дает выбор: анус или нежная киска. Они имеют разный внутренний рельеф и диаметр входа. Удобный силиконовый цилиндр гарантирует максимальный комфорт в использовании.  Бархатистый материал.  Нескользящий силиконовый цилиндр.  Можно использовать в воде.  Два входа с разным внутренним рельефом. Двусторонний мастурбатор JOS NADIN.  Двусторонний мастурбатор JOS NADIN. Модель: jos-784003. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный с красным. Материал: нежный TPR (вторая кожа), силикон. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6803,7 +6837,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>нежный TPR (вторая кожа), силикон</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6819,19 +6853,19 @@
         </is>
       </c>
       <c r="W49" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="X49" t="n">
-        <v>4.84</v>
+        <v>6.82</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.9</v>
+        <v>15.4</v>
       </c>
       <c r="Z49" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
@@ -6851,7 +6885,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>стимулятор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6871,28 +6905,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>JOY DIVISION</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Двусторонний мастурбатор (вагина+анус)</t>
+          <t>Очищающий спрей Clean n safe</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-20484-1299</t>
+          <t>id-28050-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6908,61 +6942,51 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_8_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20484/20484_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28050/28050_1_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта стимуляция отличается от близости с женщиной и обычной мастурбации! Совершенно иные, насыщенные и колоритные ощущения, приводящие к взрывному оргазму.Двусторонний мастурбатор дает выбор: анус или нежная киска. Они имеют разный внутренний рельеф и диаметр входа. Удобный силиконовый цилиндр гарантирует максимальный комфорт в использовании. Бархатистый материал. Нескользящий силиконовый цилиндр. Можно использовать в воде. Два входа с разным внутренним рельефом. Двусторонний мастурбатор (вагина+анус) LULU.  Двусторонний мастурбатор (вагина+анус) LULU. Модель: jos-784002. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный с синим. Материал: TPR, силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Clean'n'safe - это быстродействующее и не содержащее спирта средство для требовательной гигиены. Он подходит для использования с большинством материалов и поэтому идеально подходит для интим-игрушек из силикона, пластика или латекса.Доказана эффективность согласно EN 1040 и EN 1276, перечисленным в VAH . DGHM. эффективен всего за 60 секунд не содержит спирт высокая эффективность против вирусов (например, ВИЧ), герпеса, бактерий (например, хламидиоз), грибковая инфекция идеально подходит для силикона, всех пластмасс, латекса и Silikomed идеально подходит для быстрой, простой и 100% эффективной очистки дерматологически протестирован.Очищающий спрей Clean n safe JoyDivision (100 мл).  Очищающий спрей Clean n safe JoyDivision (100 мл). Модель: joydivision-13900. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Элитная продукция &gt; Косметическая продукция. Дезинфекция &gt; Очищающие средства. Элитная продукция. Батареек нет в комплекте. Бренд: JOY DIVISION. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Германия</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>TPR, силикон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W50" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X50" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>14</v>
-      </c>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
@@ -7001,13 +7025,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>JOY DROPS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -7017,12 +7041,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Двусторонний мастурбатор JOS NADIN</t>
+          <t>Крем для увеличения пениса Penis</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-25992-1299</t>
+          <t>id-21811-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -7038,61 +7062,51 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25992/25992_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21811/21811_1_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта стимуляция отличается от близости с женщиной и обычной мастурбации! Совершенно иные, насыщенные и колоритные ощущения, приводящие к взрывному оргазму. Двусторонний мастурбатор дает выбор: анус или нежная киска. Они имеют разный внутренний рельеф и диаметр входа. Удобный силиконовый цилиндр гарантирует максимальный комфорт в использовании.  Бархатистый материал.  Нескользящий силиконовый цилиндр.  Можно использовать в воде.  Два входа с разным внутренним рельефом. Двусторонний мастурбатор JOS NADIN.  Двусторонний мастурбатор JOS NADIN. Модель: jos-784003. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный с красным. Материал: нежный TPR (вторая кожа), силикон. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Крем сертифицирован в России и ЕС. Делает сексуальные отношения еще более приятными за счет утолщения и удлинение пениса во время применения.Совместим с презервативами, не нарушает их структуру. Гипоаллергенный, не оставляет пятен.Применение: нанесите достаточное количество крема и втирайте массирующими движениями 5-10 минут.Рекомендуется применять два раза в день на регулярной основе. Крем для увеличения пениса Penis Enlargement Cream (100 мл).  Крем для увеличения пениса Penis Enlargement Cream (100 мл). Модель: joydrops-315. Косметика, препараты. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: JOY DROPS. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Турция</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>нежный TPR (вторая кожа), силикон</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W51" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X51" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>14</v>
-      </c>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
@@ -7131,28 +7145,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>JOY DIVISION</t>
+          <t>ЖУЙДЭМЭН</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Очищающий спрей Clean n safe</t>
+          <t>Капсулы для мужчин АНДРОГЕРОН 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-28050-1299</t>
+          <t>id-26929-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -7168,44 +7182,40 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28050/28050_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26929/26929_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clean'n'safe - это быстродействующее и не содержащее спирта средство для требовательной гигиены. Он подходит для использования с большинством материалов и поэтому идеально подходит для интим-игрушек из силикона, пластика или латекса.Доказана эффективность согласно EN 1040 и EN 1276, перечисленным в VAH . DGHM. эффективен всего за 60 секунд не содержит спирт высокая эффективность против вирусов (например, ВИЧ), герпеса, бактерий (например, хламидиоз), грибковая инфекция идеально подходит для силикона, всех пластмасс, латекса и Silikomed идеально подходит для быстрой, простой и 100% эффективной очистки дерматологически протестирован.Очищающий спрей Clean n safe JoyDivision (100 мл).  Очищающий спрей Clean n safe JoyDivision (100 мл). Модель: joydivision-13900. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Элитная продукция &gt; Косметическая продукция. Дезинфекция &gt; Очищающие средства. Элитная продукция. Батареек нет в комплекте. Бренд: JOY DIVISION. </t>
+          <t xml:space="preserve">Возбуждающее средство для мужчин.Повышает потенцию. Оказывает возбуждающий эффект, стимулирует кровообращение в сосудах полового члена, усиливает секрецию гормонов, посредством этого достигается быстрая и длительная эрекция.Капсулы обладают общеукрепляющим и мягким тонизирующим действием для мужчин. Препарат показан людям с пониженной потенцией и с преждевременной эякуляцией.Преимущества капсул Андрогерон:- Быстрый эффект - обычно через 15-30 минут после применения. Скорость восстановления эрекции после применения капсул Андрогерон выше, чем после химических препаратов, эрекция протекает гораздо сильнее, а период возбужденного состояния особенно длителен. Капсулы Андрогерон также питают и укрепляют организм.- Растительный состав препарата питает и оздоравливает организм. Он не содержит гормонов, химических компонентов, не противопоказан людям, употребляющим алкоголь. Капсулы Андрогерон не дают побочных эффектов, безопасны и надежны, в то же время они содержат питательные вещества, укрепляют организм и повышают иммунитет, подходят для применения людям с различными заболеваниями.- Длительный эффект: действие длится от 3 до 5 дней. Мягкое и длительное воздействие. Употребление Андрогерона способствует мобилизации потенциальных возможностей организма, усилению яркости ощущений. Однократное применение обеспечивает длительный эффект.- Капсулы Андрогерон являются примером совершенного сочетания тысячелетней традиции китайской медицины и достижений современных высоких технологий.- Капсулы Андрогерон отличаются приемлемой ценой, их стоимость в 3 раза ниже стоимости аналогичных химических препаратов.В состав входят:- плоды лимонника китайского- семена лука клубневого- кора бархата амурского- кордицепс китайский.Рекомендации по применению: по 1 капсуле 1 раз в день во время еды, за 30-60 минут до предполагаемой близости. рекомендуется запивать водой.Препарат совместим с алкоголем. Капсулы для мужчин АНДРОГЕРОН (1 капсула).  Капсулы для мужчин АНДРОГЕРОН (1 капсула). Модель: juid-150001. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: ЖУЙДЭМЭН. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Германия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -7231,7 +7241,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 капсула</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -7251,13 +7261,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>JOY DROPS</t>
+          <t>ЖУЙДЭМЭН</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -7267,12 +7277,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Крем для увеличения пениса Penis</t>
+          <t>Капсулы для мужчин АНДРОГЕРОН 12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-21811-1299</t>
+          <t>id-26928-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -7288,44 +7298,40 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21811/21811_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26928/26928_1_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Крем сертифицирован в России и ЕС. Делает сексуальные отношения еще более приятными за счет утолщения и удлинение пениса во время применения.Совместим с презервативами, не нарушает их структуру. Гипоаллергенный, не оставляет пятен.Применение: нанесите достаточное количество крема и втирайте массирующими движениями 5-10 минут.Рекомендуется применять два раза в день на регулярной основе. Крем для увеличения пениса Penis Enlargement Cream (100 мл).  Крем для увеличения пениса Penis Enlargement Cream (100 мл). Модель: joydrops-315. Косметика, препараты. Увеличение пениса &gt; Кремы, препараты. Батареек нет в комплекте. Бренд: JOY DROPS. </t>
+          <t xml:space="preserve">Возбуждающее средство для мужчин.Повышает потенцию. Оказывает возбуждающий эффект, стимулирует кровообращение в сосудах полового члена, усиливает секрецию гормонов, посредством этого достигается быстрая и длительная эрекция.Капсулы обладают общеукрепляющим и мягким тонизирующим действием для мужчин. Препарат показан людям с пониженной потенцией и с преждевременной эякуляцией.Преимущества капсул Андрогерон:- Быстрый эффект - обычно через 15-30 минут после применения. Скорость восстановления эрекции после применения капсул Андрогерон выше, чем после химических препаратов, эрекция протекает гораздо сильнее, а период возбужденного состояния особенно длителен. Капсулы Андрогерон также питают и укрепляют организм.- Растительный состав препарата питает и оздоравливает организм. Он не содержит гормонов, химических компонентов, не противопоказан людям, употребляющим алкоголь. Капсулы Андрогерон не дают побочных эффектов, безопасны и надежны, в то же время они содержат питательные вещества, укрепляют организм и повышают иммунитет, подходят для применения людям с различными заболеваниями.- Длительный эффект: действие длится от 3 до 5 дней. Мягкое и длительное воздействие. Употребление Андрогерона способствует мобилизации потенциальных возможностей организма, усилению яркости ощущений. Однократное применение обеспечивает длительный эффект.- Капсулы Андрогерон являются примером совершенного сочетания тысячелетней традиции китайской медицины и достижений современных высоких технологий.- Капсулы Андрогерон отличаются приемлемой ценой, их стоимость в 3 раза ниже стоимости аналогичных химических препаратов.В состав входят:- плоды лимонника китайского- семена лука клубневого- кора бархата амурского- кордицепс китайский.Рекомендации по применению: по 1 капсуле 1 раз в день во время еды, за 30-60 минут до предполагаемой близости. рекомендуется запивать водой.Препарат совместим с алкоголем. Капсулы для мужчин АНДРОГЕРОН (12 капсул).  Капсулы для мужчин АНДРОГЕРОН (12 капсул). Модель: juid-150120. Косметика, препараты. Препараты и возб</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -7351,7 +7357,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>12 капсул</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7371,32 +7377,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ЖУЙДЭМЭН</t>
+          <t>JULIMEX</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Капсулы для мужчин АНДРОГЕРОН 12</t>
+          <t>Наклейки для коррекции груди Julimex</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-26928-1299</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>id-17894-1299</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>99999</v>
@@ -7408,17 +7422,17 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26928/26928_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_4_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возбуждающее средство для мужчин.Повышает потенцию. Оказывает возбуждающий эффект, стимулирует кровообращение в сосудах полового члена, усиливает секрецию гормонов, посредством этого достигается быстрая и длительная эрекция.Капсулы обладают общеукрепляющим и мягким тонизирующим действием для мужчин. Препарат показан людям с пониженной потенцией и с преждевременной эякуляцией.Преимущества капсул Андрогерон:- Быстрый эффект - обычно через 15-30 минут после применения. Скорость восстановления эрекции после применения капсул Андрогерон выше, чем после химических препаратов, эрекция протекает гораздо сильнее, а период возбужденного состояния особенно длителен. Капсулы Андрогерон также питают и укрепляют организм.- Растительный состав препарата питает и оздоравливает организм. Он не содержит гормонов, химических компонентов, не противопоказан людям, употребляющим алкоголь. Капсулы Андрогерон не дают побочных эффектов, безопасны и надежны, в то же время они содержат питательные вещества, укрепляют организм и повышают иммунитет, подходят для применения людям с различными заболеваниями.- Длительный эффект: действие длится от 3 до 5 дней. Мягкое и длительное воздействие. Употребление Андрогерона способствует мобилизации потенциальных возможностей организма, усилению яркости ощущений. Однократное применение обеспечивает длительный эффект.- Капсулы Андрогерон являются примером совершенного сочетания тысячелетней традиции китайской медицины и достижений современных высоких технологий.- Капсулы Андрогерон отличаются приемлемой ценой, их стоимость в 3 раза ниже стоимости аналогичных химических препаратов.В состав входят:- плоды лимонника китайского- семена лука клубневого- кора бархата амурского- кордицепс китайский.Рекомендации по применению: по 1 капсуле 1 раз в день во время еды, за 30-60 минут до предполагаемой близости. рекомендуется запивать водой.Препарат совместим с алкоголем. Капсулы для мужчин АНДРОГЕРОН (12 капсул).  Капсулы для мужчин АНДРОГЕРОН (12 капсул). Модель: juid-150120. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Препараты и возбудители &gt; Усиление эрекции. Батареек нет в комплекте. Бренд: ЖУЙДЭМЭН. </t>
+          <t xml:space="preserve">Ультратонкие пластыри необычной формы, которые моделируют, корректируют и придают соблазнительную форму бюсту. Не причиняют неудобств и абсолютно не заметены под одеждой. Наклейки для коррекции груди Julimex LIFT-UP (D).  Наклейки для коррекции груди Julimex LIFT-UP (D). Модель: jul-ps02d. Белье. Красивая грудь &gt; Накладки, вкладыши. Цвет: телесный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: JULIMEX. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -7431,7 +7445,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
@@ -7467,7 +7485,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>12 капсул</t>
+          <t>4 наклейки</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7503,22 +7521,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Наклейки для коррекции груди Julimex</t>
+          <t>Силиконовые вкладыши Julimex Cieliste</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-17894-1299</t>
+          <t>id-17899-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -7532,12 +7550,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17894/17894_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17899/17899_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17899/17899_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17899/17899_3_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ультратонкие пластыри необычной формы, которые моделируют, корректируют и придают соблазнительную форму бюсту. Не причиняют неудобств и абсолютно не заметены под одеждой. Наклейки для коррекции груди Julimex LIFT-UP (D).  Наклейки для коррекции груди Julimex LIFT-UP (D). Модель: jul-ps02d. Белье. Красивая грудь &gt; Накладки, вкладыши. Цвет: телесный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: JULIMEX. </t>
+          <t xml:space="preserve">.Силиконовые вкладыши Julimex Cieliste.  Силиконовые вкладыши Julimex Cieliste. Модель: jul-ws03. Белье. Красивая грудь &gt; Накладки, вкладыши. Цвет: телесный. Материал: 97% силикон, 3% полиуретан. Батареек нет в комплекте. Бренд: JULIMEX. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7557,7 +7575,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>97% силикон, 3% полиуретан</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7595,7 +7613,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>4 наклейки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7631,12 +7649,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Силиконовые вкладыши Julimex Cieliste</t>
+          <t>Вкладыши с насосом Julimex</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-17899-1299</t>
+          <t>id-17892-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7660,12 +7678,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17899/17899_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17899/17899_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17899/17899_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_4_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Силиконовые вкладыши Julimex Cieliste.  Силиконовые вкладыши Julimex Cieliste. Модель: jul-ws03. Белье. Красивая грудь &gt; Накладки, вкладыши. Цвет: телесный. Материал: 97% силикон, 3% полиуретан. Батареек нет в комплекте. Бренд: JULIMEX. </t>
+          <t xml:space="preserve">.Вкладыши с насосом Julimex.  Вкладыши с насосом Julimex. Модель: jul-ws08. Белье. Красивая грудь &gt; Накладки, вкладыши. Цвет: телесный. Материал: 54% полиуретан, 46% полиэстер. Батареек нет в комплекте. Бренд: JULIMEX. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7685,7 +7703,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>97% силикон, 3% полиуретан</t>
+          <t>54% полиуретан, 46% полиэстер</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7743,13 +7761,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>JULIMEX</t>
+          <t>КАПИТАЛПРОДУКТ</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7759,24 +7777,16 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Вкладыши с насосом Julimex</t>
+          <t>Возбуждающие капли для женщин РАНДЕВУ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-17892-1299</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23744-1299</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>99999</v>
@@ -7788,44 +7798,44 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17892/17892_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23744/23744_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23744/23744_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23744/23744_4_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вкладыши с насосом Julimex.  Вкладыши с насосом Julimex. Модель: jul-ws08. Белье. Красивая грудь &gt; Накладки, вкладыши. Цвет: телесный. Материал: 54% полиуретан, 46% полиэстер. Батареек нет в комплекте. Бренд: JULIMEX. </t>
+          <t xml:space="preserve">RENDEZ VOUS - уникальное средство, способное быстро и эффективно разбудить женскую чувственность. Компоненты препарата вызывают у женщин мощное половое возбуждение, и усиливает влечение к мужчине. Помимо этого средство позволяет получить больше удовольствия от секса - L-аргинин и корень женьшеня стимулируют микроциркуляцию в области половых органов и обеспечивают приток крови к ним, что усиливает приятные ощущения и способствует достижению оргазма. RENDEZ VOUS при регулярном приеме естественно стимулирует женское либидо и борется с первыми признаками климакса. Способ приготовления: по 30-35 капель(1 мл) концентрированного напитка развести в ½ стакана воды или любого безалкогольного напитка. Перемешать, дождаться полного растворения содержимого(1-2 минуты) и выпить за 30 минут до полового акта. Взрослым принимать 2 раза в день независимо от приема пищи. Возбуждающие капли для женщин РАНДЕВУ Rendez Vouz (30 мл).  Возбуждающие капли для женщин РАНДЕВУ Rendez Vouz (30 мл). Модель: kap-62. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: КАПИТАЛПРОДУКТ. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>54% полиуретан, 46% полиэстер</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr"/>
+          <t>30 мл</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>30 мл</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7871,28 +7881,28 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>КАПИТАЛПРОДУКТ</t>
+          <t>KAZANOVA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Возбуждающие капли для женщин РАНДЕВУ</t>
+          <t>Многокомпонентные мужские капли</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-23744-1299</t>
+          <t>id-28049-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7908,17 +7918,17 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23744/23744_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23744/23744_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23744/23744_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28049/28049_1_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">RENDEZ VOUS - уникальное средство, способное быстро и эффективно разбудить женскую чувственность. Компоненты препарата вызывают у женщин мощное половое возбуждение, и усиливает влечение к мужчине. Помимо этого средство позволяет получить больше удовольствия от секса - L-аргинин и корень женьшеня стимулируют микроциркуляцию в области половых органов и обеспечивают приток крови к ним, что усиливает приятные ощущения и способствует достижению оргазма. RENDEZ VOUS при регулярном приеме естественно стимулирует женское либидо и борется с первыми признаками климакса. Способ приготовления: по 30-35 капель(1 мл) концентрированного напитка развести в ½ стакана воды или любого безалкогольного напитка. Перемешать, дождаться полного растворения содержимого(1-2 минуты) и выпить за 30 минут до полового акта. Взрослым принимать 2 раза в день независимо от приема пищи. Возбуждающие капли для женщин РАНДЕВУ Rendez Vouz (30 мл).  Возбуждающие капли для женщин РАНДЕВУ Rendez Vouz (30 мл). Модель: kap-62. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Батареек нет в комплекте. Бренд: КАПИТАЛПРОДУКТ. </t>
+          <t xml:space="preserve">Potential 69 - многокомпонентные возбуждающие капли из растительных экстрактов, витаминов и ароматизирующих веществ на водной основе.Капли придают мятную свежесть полости рта и оказывают общетонизирующее действие на организм. Тонизирующий эффект наступает через 5-30 минут и длится до 24 часов.Способ использования:Добавить 6-8 капель (полная пипетка, набирается одним нажатием) в подъязычную область или напиток.Предупреждение:Эффект от многократного использования усиливается, поэтому не следует превышать рекомендуемую дозировку. Максимальное количество капель: 16 в день.Состав:Вода очищенная, экстракты родиолы розовой, женьшеня, астрагала, шиповника, фруктоза, ментол, ароматизатор мята, апельсин, бензойная кислота. Многокомпонентные мужские капли POTENTIAL 69 (7,5 мл, 12 порций).  Многокомпонентные мужские капли POTENTIAL 69 (7,5 мл, 12 порций). Модель: kazanova-150358. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: KAZANOVA. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Казахстан</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7935,17 +7945,17 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>7,5 мл</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>30 мл</t>
+          <t>7,5 мл</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -7991,7 +8001,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
